--- a/Bug_Report_And_Test-case_Volvo Eicher Claim.xlsx
+++ b/Bug_Report_And_Test-case_Volvo Eicher Claim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Documents\GitHub\Test-Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3DB359-FFDC-45B2-848D-F1D51CD0E5AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC992A1B-7F80-422C-88CA-C173F34611F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="2" xr2:uid="{71BF4958-A961-4E76-9BC7-C17C2F64A229}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="250">
   <si>
     <t xml:space="preserve">Bug Report </t>
   </si>
@@ -1310,9 +1310,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Vehicle Chessis No. :- @@@@@@######12345</t>
-  </si>
-  <si>
     <t>Once Chassis no. not avaliable msg. displayed fiesld data should be reset</t>
   </si>
   <si>
@@ -1386,9 +1383,6 @@
     <t>Once Chassis no. not avaliable msg. displayed field data should be reset</t>
   </si>
   <si>
-    <t>Still same Issue when Entering Chessis No. Less than 16char.</t>
-  </si>
-  <si>
     <t>Vehicle Chessis No. :- @@######12345</t>
   </si>
   <si>
@@ -1429,6 +1423,21 @@
   </si>
   <si>
     <t>TC_12/Vin-Validation</t>
+  </si>
+  <si>
+    <t>Bug_ID_51</t>
+  </si>
+  <si>
+    <t>Bug_ID_52</t>
+  </si>
+  <si>
+    <t>Vehicle Chessis No. :- @@######12345 (Less than 17)</t>
+  </si>
+  <si>
+    <t>Vehicle Chessis No. :- @@@@####12345 (Less than 17)</t>
+  </si>
+  <si>
+    <t>Vehicle Chessis No. :- @@@@######12345</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1700,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1788,6 +1797,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1833,8 +1845,11 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2169,34 +2184,34 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="I8" s="37"/>
+      <c r="H8" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="I8" s="38"/>
     </row>
     <row r="9" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E9" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="G9" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="H9" s="26" t="s">
         <v>224</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>225</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>206</v>
@@ -2204,10 +2219,10 @@
     </row>
     <row r="10" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F10" s="29">
         <v>12</v>
@@ -2224,7 +2239,7 @@
     </row>
     <row r="11" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="29">
@@ -2252,10 +2267,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBD0D03-4052-434A-81DB-12104B29E3C9}">
-  <dimension ref="A1:PY54"/>
+  <dimension ref="A1:PY56"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="O54" sqref="O54"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,45 +2293,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:441" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
     </row>
     <row r="2" spans="1:441" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="K2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" s="45"/>
       <c r="L2" s="34"/>
       <c r="M2" s="33"/>
       <c r="N2" s="33"/>
@@ -2324,25 +2339,25 @@
       <c r="P2" s="33"/>
     </row>
     <row r="3" spans="1:441" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="42"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44">
+      <c r="I3" s="44"/>
+      <c r="J3" s="45">
         <v>10008</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="34"/>
       <c r="M3" s="33"/>
       <c r="N3" s="33"/>
@@ -20274,15 +20289,15 @@
       <c r="PX52" s="18"/>
       <c r="PY52" s="18"/>
     </row>
-    <row r="53" spans="1:441" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:441" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>43876</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D53" s="33" t="s">
         <v>204</v>
@@ -20294,7 +20309,7 @@
         <v>200</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H53" s="33"/>
       <c r="I53" s="33"/>
@@ -20305,20 +20320,14 @@
         <v>29</v>
       </c>
       <c r="L53" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="M53" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="M53" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="N53" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="O53" s="3">
-        <v>43880</v>
-      </c>
-      <c r="P53" s="3">
-        <v>43880</v>
-      </c>
+      <c r="N53" s="33"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
       <c r="Q53" s="19"/>
       <c r="R53" s="19"/>
       <c r="S53" s="19"/>
@@ -20750,13 +20759,13 @@
         <v>43876</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E54" s="33" t="s">
         <v>196</v>
@@ -20765,7 +20774,7 @@
         <v>200</v>
       </c>
       <c r="G54" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H54" s="33"/>
       <c r="I54" s="33"/>
@@ -20776,20 +20785,78 @@
         <v>29</v>
       </c>
       <c r="L54" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="M54" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="N54" s="33"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="1:441" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="52">
+        <v>43880</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="53"/>
+    </row>
+    <row r="56" spans="1:441" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="52">
+        <v>43880</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="D56" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="M54" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="N54" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="O54" s="3">
-        <v>43880</v>
-      </c>
-      <c r="P54" s="3">
-        <v>43880</v>
-      </c>
+      <c r="E56" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -20841,8 +20908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CF07D1-DB9D-46E0-8F35-4E41CC253122}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20859,15 +20926,15 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
@@ -20876,15 +20943,15 @@
       <c r="A2" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="21" t="s">
         <v>182</v>
       </c>
@@ -20899,20 +20966,20 @@
       <c r="A3" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="51">
         <v>43875</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="21" t="s">
         <v>186</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
@@ -20922,15 +20989,15 @@
       <c r="A4" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="21" t="s">
         <v>190</v>
       </c>
@@ -20978,7 +21045,7 @@
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>195</v>
@@ -21001,7 +21068,7 @@
     </row>
     <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>199</v>
@@ -21024,7 +21091,7 @@
     </row>
     <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>202</v>
@@ -21055,7 +21122,7 @@
     </row>
     <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>202</v>
@@ -21067,14 +21134,14 @@
         <v>200</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>207</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>208</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
@@ -21086,7 +21153,7 @@
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>202</v>
@@ -21098,12 +21165,12 @@
         <v>200</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -21111,7 +21178,7 @@
     </row>
     <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>202</v>
@@ -21123,12 +21190,12 @@
         <v>200</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -21136,7 +21203,7 @@
     </row>
     <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>202</v>
@@ -21148,12 +21215,12 @@
         <v>200</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -21161,7 +21228,7 @@
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>202</v>
@@ -21173,12 +21240,12 @@
         <v>200</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -21186,7 +21253,7 @@
     </row>
     <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>202</v>
@@ -21198,12 +21265,12 @@
         <v>200</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -21211,7 +21278,7 @@
     </row>
     <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>202</v>
@@ -21223,12 +21290,12 @@
         <v>200</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -21236,7 +21303,7 @@
     </row>
     <row r="16" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>202</v>
@@ -21248,12 +21315,12 @@
         <v>200</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -21261,7 +21328,7 @@
     </row>
     <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>202</v>
@@ -21273,12 +21340,12 @@
         <v>200</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>

--- a/Bug_Report_And_Test-case_Volvo Eicher Claim.xlsx
+++ b/Bug_Report_And_Test-case_Volvo Eicher Claim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Documents\GitHub\Test-Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC992A1B-7F80-422C-88CA-C173F34611F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD218C6-0873-41C3-B9A8-4FF163BCF578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="2" xr2:uid="{71BF4958-A961-4E76-9BC7-C17C2F64A229}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{71BF4958-A961-4E76-9BC7-C17C2F64A229}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="250">
   <si>
     <t xml:space="preserve">Bug Report </t>
   </si>
@@ -1700,7 +1700,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1800,6 +1800,15 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1844,12 +1853,6 @@
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2184,18 +2187,18 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="I8" s="38"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="31" t="s">
@@ -2269,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBD0D03-4052-434A-81DB-12104B29E3C9}">
   <dimension ref="A1:PY56"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D5" sqref="A1:P56"/>
+    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
+      <selection activeCell="L54" sqref="A1:P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2293,45 +2296,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:441" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
     </row>
     <row r="2" spans="1:441" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="43"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="K2" s="45"/>
+      <c r="K2" s="48"/>
       <c r="L2" s="34"/>
       <c r="M2" s="33"/>
       <c r="N2" s="33"/>
@@ -2339,25 +2342,25 @@
       <c r="P2" s="33"/>
     </row>
     <row r="3" spans="1:441" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45">
+      <c r="I3" s="47"/>
+      <c r="J3" s="48">
         <v>10008</v>
       </c>
-      <c r="K3" s="45"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="34"/>
       <c r="M3" s="33"/>
       <c r="N3" s="33"/>
@@ -20316,8 +20319,8 @@
       <c r="J53" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="K53" s="33" t="s">
-        <v>29</v>
+      <c r="K53" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="L53" s="33" t="s">
         <v>229</v>
@@ -20781,8 +20784,8 @@
       <c r="J54" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="K54" s="33" t="s">
-        <v>29</v>
+      <c r="K54" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="L54" s="33" t="s">
         <v>229</v>
@@ -20795,7 +20798,7 @@
       <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:441" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="52">
+      <c r="A55" s="38">
         <v>43880</v>
       </c>
       <c r="B55" s="35" t="s">
@@ -20816,18 +20819,24 @@
       <c r="G55" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="53"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="K55" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L55" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
     </row>
     <row r="56" spans="1:441" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="52">
+      <c r="A56" s="38">
         <v>43880</v>
       </c>
       <c r="B56" s="35" t="s">
@@ -20848,15 +20857,21 @@
       <c r="G56" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="53"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="K56" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L56" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -20908,7 +20923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CF07D1-DB9D-46E0-8F35-4E41CC253122}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="C16" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -20926,15 +20941,15 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
@@ -20943,15 +20958,15 @@
       <c r="A2" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="21" t="s">
         <v>182</v>
       </c>
@@ -20966,15 +20981,15 @@
       <c r="A3" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="54">
         <v>43875</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="21" t="s">
         <v>186</v>
       </c>
@@ -20989,15 +21004,15 @@
       <c r="A4" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="21" t="s">
         <v>190</v>
       </c>

--- a/Bug_Report_And_Test-case_Volvo Eicher Claim.xlsx
+++ b/Bug_Report_And_Test-case_Volvo Eicher Claim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Documents\GitHub\Test-Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD218C6-0873-41C3-B9A8-4FF163BCF578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88C78FF-666A-499D-B0ED-8C96C6A588F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{71BF4958-A961-4E76-9BC7-C17C2F64A229}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{71BF4958-A961-4E76-9BC7-C17C2F64A229}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="250">
   <si>
     <t xml:space="preserve">Bug Report </t>
   </si>
@@ -1700,7 +1700,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1808,6 +1808,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2172,8 +2175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303FBBA8-498C-487C-8120-B26BD68D0EC8}">
   <dimension ref="D8:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="D8:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,18 +2190,18 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="I8" s="41"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="31" t="s">
@@ -2272,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBD0D03-4052-434A-81DB-12104B29E3C9}">
   <dimension ref="A1:PY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
-      <selection activeCell="L54" sqref="A1:P56"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="J53" sqref="A1:P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2296,45 +2299,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:441" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
     </row>
     <row r="2" spans="1:441" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48" t="s">
+      <c r="I2" s="48"/>
+      <c r="J2" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="K2" s="48"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="34"/>
       <c r="M2" s="33"/>
       <c r="N2" s="33"/>
@@ -2342,25 +2345,25 @@
       <c r="P2" s="33"/>
     </row>
     <row r="3" spans="1:441" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48">
+      <c r="I3" s="48"/>
+      <c r="J3" s="49">
         <v>10008</v>
       </c>
-      <c r="K3" s="48"/>
+      <c r="K3" s="49"/>
       <c r="L3" s="34"/>
       <c r="M3" s="33"/>
       <c r="N3" s="33"/>
@@ -20316,8 +20319,8 @@
       </c>
       <c r="H53" s="33"/>
       <c r="I53" s="33"/>
-      <c r="J53" s="33" t="s">
-        <v>46</v>
+      <c r="J53" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="K53" s="36" t="s">
         <v>64</v>
@@ -20821,16 +20824,18 @@
       </c>
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
-      <c r="J55" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="K55" s="37" t="s">
-        <v>29</v>
+      <c r="J55" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K55" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="L55" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="M55" s="39"/>
+      <c r="M55" s="36" t="s">
+        <v>64</v>
+      </c>
       <c r="N55" s="39"/>
       <c r="O55" s="39"/>
       <c r="P55" s="39"/>
@@ -20862,13 +20867,15 @@
       <c r="J56" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="K56" s="37" t="s">
-        <v>29</v>
+      <c r="K56" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="L56" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="M56" s="39"/>
+      <c r="M56" s="36" t="s">
+        <v>64</v>
+      </c>
       <c r="N56" s="39"/>
       <c r="O56" s="39"/>
       <c r="P56" s="39"/>
@@ -20923,8 +20930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CF07D1-DB9D-46E0-8F35-4E41CC253122}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="E9" sqref="A1:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20941,15 +20948,15 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
@@ -20958,15 +20965,15 @@
       <c r="A2" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="21" t="s">
         <v>182</v>
       </c>
@@ -20981,15 +20988,15 @@
       <c r="A3" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="55">
         <v>43875</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="21" t="s">
         <v>186</v>
       </c>
@@ -21004,15 +21011,15 @@
       <c r="A4" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="51"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="21" t="s">
         <v>190</v>
       </c>

--- a/Bug_Report_And_Test-case_Volvo Eicher Claim.xlsx
+++ b/Bug_Report_And_Test-case_Volvo Eicher Claim.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Documents\GitHub\Test-Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF82B15-5CEF-4D1F-B761-42E64FD8B845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4A2CF3-0C65-42E4-B5E7-9661916B3295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{71BF4958-A961-4E76-9BC7-C17C2F64A229}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="11070" activeTab="1" xr2:uid="{71BF4958-A961-4E76-9BC7-C17C2F64A229}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Vin-Validation" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bug_Report!$K$4:$K$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bug_Report!$K$4:$K$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Closed_Bug!$K$4:$K$43</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="287">
   <si>
     <t xml:space="preserve">Bug Report </t>
   </si>
@@ -1713,13 +1713,162 @@
 2) Add claim</t>
   </si>
   <si>
-    <t>Ranjeet</t>
-  </si>
-  <si>
     <t>Bug_ID_60</t>
   </si>
   <si>
     <t>Claim</t>
+  </si>
+  <si>
+    <t>on Hold &amp; need to discuss</t>
+  </si>
+  <si>
+    <t>need to discuss</t>
+  </si>
+  <si>
+    <t>Bug_ID_61</t>
+  </si>
+  <si>
+    <t>Bug_ID_62</t>
+  </si>
+  <si>
+    <t>Bug_ID_63</t>
+  </si>
+  <si>
+    <t>Bug_ID_64</t>
+  </si>
+  <si>
+    <t>Bug_ID_65</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Creating New Claim :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unable to search Agreement No. Manually</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Creating New Claim :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fields are not arranged Properly</t>
+    </r>
+  </si>
+  <si>
+    <t>1) Login with manager/Dealer account
+2) Add claim
+3) Edit claim</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Creating New Claim :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vehicle Reported date should be same as date of job card validation appears which is not true for each case.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Creating New Claim :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Without entering EHS HRS new calim is created and able to create new claim even if EW start date is a future date </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Need to Discuss]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Edit Claim :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>On Editing Claim when selecting Agreegate part list No Matches Found shows in drop down and previously entered part didn’t show anything</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2036,7 +2185,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2137,6 +2286,33 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2178,36 +2354,6 @@
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2527,7 +2673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303FBBA8-498C-487C-8120-B26BD68D0EC8}">
   <dimension ref="D8:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D8:H11"/>
     </sheetView>
   </sheetViews>
@@ -2541,17 +2687,17 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="37"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="35"/>
+      <c r="G8" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="33" t="s">
@@ -2572,7 +2718,7 @@
     </row>
     <row r="10" spans="4:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E10" s="31">
         <v>60</v>
@@ -2591,16 +2737,16 @@
       <c r="D11" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="41">
         <v>60</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="41">
         <v>60</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="41">
         <v>49</v>
       </c>
-      <c r="H11" s="56">
+      <c r="H11" s="42">
         <v>11</v>
       </c>
     </row>
@@ -2616,16 +2762,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBD0D03-4052-434A-81DB-12104B29E3C9}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:P15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -2642,185 +2788,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="40" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="50"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41">
-        <v>10122</v>
-      </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50">
+        <v>10098</v>
+      </c>
+      <c r="K3" s="50"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="49" t="s">
+      <c r="P4" s="35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>43860</v>
-      </c>
-      <c r="B5" s="9"/>
+    <row r="5" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
+        <v>43882</v>
+      </c>
+      <c r="B5" s="39"/>
       <c r="C5" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>91</v>
+        <v>249</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>263</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="26" t="s">
-        <v>93</v>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="38" t="s">
+        <v>252</v>
       </c>
       <c r="I5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-    </row>
-    <row r="6" spans="1:16" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>43860</v>
-      </c>
-      <c r="B6" s="9"/>
+      <c r="L5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+    </row>
+    <row r="6" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
+        <v>43882</v>
+      </c>
+      <c r="B6" s="39"/>
       <c r="C6" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>99</v>
+        <v>260</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>267</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="26" t="s">
-        <v>100</v>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="38" t="s">
+        <v>256</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>63</v>
@@ -2831,149 +2975,145 @@
       <c r="K6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-    </row>
-    <row r="7" spans="1:16" ht="153" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>43860</v>
-      </c>
-      <c r="B7" s="9"/>
+      <c r="L6" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+    </row>
+    <row r="7" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
+        <v>43882</v>
+      </c>
+      <c r="B7" s="39"/>
       <c r="C7" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="26" t="s">
-        <v>104</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-    </row>
-    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
-        <v>43882</v>
-      </c>
-      <c r="B8" s="53"/>
+      <c r="L7" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+    </row>
+    <row r="8" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
+        <v>43886</v>
+      </c>
+      <c r="B8" s="39"/>
       <c r="C8" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>262</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>46</v>
+        <v>276</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>30</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-    </row>
-    <row r="9" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="51">
-        <v>43882</v>
-      </c>
-      <c r="B9" s="53"/>
+      <c r="L8" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+    </row>
+    <row r="9" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
+        <v>43886</v>
+      </c>
+      <c r="B9" s="39"/>
       <c r="C9" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>46</v>
+        <v>277</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>30</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-    </row>
-    <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
-        <v>43882</v>
-      </c>
-      <c r="B10" s="53"/>
+      <c r="L9" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+    </row>
+    <row r="10" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
+        <v>43886</v>
+      </c>
+      <c r="B10" s="39"/>
       <c r="C10" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="52" t="s">
-        <v>253</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="14" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>46</v>
@@ -2981,191 +3121,85 @@
       <c r="K10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-    </row>
-    <row r="11" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="51">
-        <v>43882</v>
-      </c>
-      <c r="B11" s="53"/>
+      <c r="L10" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+    </row>
+    <row r="11" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
+        <v>43886</v>
+      </c>
+      <c r="B11" s="39"/>
       <c r="C11" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>46</v>
+        <v>279</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>30</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-    </row>
-    <row r="12" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="51">
-        <v>43882</v>
-      </c>
-      <c r="B12" s="53"/>
+      <c r="L11" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+    </row>
+    <row r="12" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
+        <v>43886</v>
+      </c>
+      <c r="B12" s="39"/>
       <c r="C12" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>266</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>46</v>
+        <v>280</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>30</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-    </row>
-    <row r="13" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="51">
-        <v>43882</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>267</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-    </row>
-    <row r="14" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
-        <v>43882</v>
-      </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-    </row>
-    <row r="15" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="51">
-        <v>43882</v>
-      </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
+      <c r="L12" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3181,28 +3215,20 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{F82669EB-0567-43AC-99FD-6C24DB384B30}"/>
-    <hyperlink ref="H7" r:id="rId2" xr:uid="{962F024D-5A87-4335-A048-DDB0B9465D2A}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{F974F6A4-D415-4635-B25A-05D472011DBA}"/>
-    <hyperlink ref="H8" r:id="rId4" xr:uid="{A7A39821-B3F7-41A1-A504-4E6AA3EDC71D}"/>
-    <hyperlink ref="H9" r:id="rId5" xr:uid="{2E47CA53-C8C5-4CFE-A30D-2B5766C29EAA}"/>
-    <hyperlink ref="H10" r:id="rId6" xr:uid="{DCCC1BDF-9929-49D5-8373-C8BCC87CA567}"/>
-    <hyperlink ref="H11" r:id="rId7" xr:uid="{BA930A03-4B50-4EE1-850F-66B385FBDB44}"/>
-    <hyperlink ref="H12" r:id="rId8" xr:uid="{77BEA508-DCCD-4C15-B960-2B0234CF0835}"/>
-    <hyperlink ref="H13" r:id="rId9" xr:uid="{6F121A93-262C-40FF-B566-5753FC6E0199}"/>
-    <hyperlink ref="H14" r:id="rId10" xr:uid="{55AE8705-4BA1-4DEC-9C2A-EA53CBB6F3AE}"/>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{2E47CA53-C8C5-4CFE-A30D-2B5766C29EAA}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{6F121A93-262C-40FF-B566-5753FC6E0199}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF4CAF1-232E-4AEA-890D-E05F5607E20D}">
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3226,45 +3252,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41" t="s">
+      <c r="I2" s="49"/>
+      <c r="J2" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="K2" s="41"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="16"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
@@ -3272,25 +3298,25 @@
       <c r="P2" s="15"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41">
+      <c r="I3" s="49"/>
+      <c r="J3" s="50">
         <v>10008</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="50"/>
       <c r="L3" s="16"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
@@ -5129,6 +5155,314 @@
       <c r="N53" s="19"/>
       <c r="O53" s="19"/>
       <c r="P53" s="19"/>
+    </row>
+    <row r="54" spans="1:16" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>43860</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="9"/>
+      <c r="H54" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L54" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N54" s="14"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+    </row>
+    <row r="55" spans="1:16" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
+        <v>43860</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="14"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L55" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N55" s="14"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+    </row>
+    <row r="56" spans="1:16" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>43860</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L56" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N56" s="14"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+    </row>
+    <row r="57" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="37">
+        <v>43882</v>
+      </c>
+      <c r="B57" s="39"/>
+      <c r="C57" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L57" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+    </row>
+    <row r="58" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="37">
+        <v>43882</v>
+      </c>
+      <c r="B58" s="39"/>
+      <c r="C58" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L58" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+    </row>
+    <row r="59" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="37">
+        <v>43882</v>
+      </c>
+      <c r="B59" s="39"/>
+      <c r="C59" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L59" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="N59" s="39"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+    </row>
+    <row r="60" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="37">
+        <v>43882</v>
+      </c>
+      <c r="B60" s="39"/>
+      <c r="C60" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D60" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L60" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M60" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+    </row>
+    <row r="61" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A61" s="37">
+        <v>43882</v>
+      </c>
+      <c r="B61" s="39"/>
+      <c r="C61" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K61" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L61" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M61" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5163,6 +5497,14 @@
     <hyperlink ref="H51" r:id="rId18" xr:uid="{1738991C-7F96-4CFD-A92F-B7FA70C831C2}"/>
     <hyperlink ref="H52" r:id="rId19" xr:uid="{1040BC29-A4F9-42D6-8A38-FA2FEA78FF88}"/>
     <hyperlink ref="H53" r:id="rId20" xr:uid="{2AF1D31A-4ED8-4E0C-BA4B-D79DAE8630E8}"/>
+    <hyperlink ref="H55" r:id="rId21" xr:uid="{F974F6A4-D415-4635-B25A-05D472011DBA}"/>
+    <hyperlink ref="H56" r:id="rId22" xr:uid="{962F024D-5A87-4335-A048-DDB0B9465D2A}"/>
+    <hyperlink ref="H54" r:id="rId23" xr:uid="{F82669EB-0567-43AC-99FD-6C24DB384B30}"/>
+    <hyperlink ref="H57" r:id="rId24" xr:uid="{A7A39821-B3F7-41A1-A504-4E6AA3EDC71D}"/>
+    <hyperlink ref="H58" r:id="rId25" xr:uid="{DCCC1BDF-9929-49D5-8373-C8BCC87CA567}"/>
+    <hyperlink ref="H59" r:id="rId26" xr:uid="{BA930A03-4B50-4EE1-850F-66B385FBDB44}"/>
+    <hyperlink ref="H60" r:id="rId27" xr:uid="{77BEA508-DCCD-4C15-B960-2B0234CF0835}"/>
+    <hyperlink ref="H61" r:id="rId28" xr:uid="{55AE8705-4BA1-4DEC-9C2A-EA53CBB6F3AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5190,15 +5532,15 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -5207,15 +5549,15 @@
       <c r="A2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="46"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="6" t="s">
         <v>181</v>
       </c>
@@ -5230,15 +5572,15 @@
       <c r="A3" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="56">
         <v>43875</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="6" t="s">
         <v>185</v>
       </c>
@@ -5253,15 +5595,15 @@
       <c r="A4" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="6" t="s">
         <v>189</v>
       </c>

--- a/Bug_Report_And_Test-case_Volvo Eicher Claim.xlsx
+++ b/Bug_Report_And_Test-case_Volvo Eicher Claim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Documents\GitHub\Test-Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4A2CF3-0C65-42E4-B5E7-9661916B3295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CF1A8A-73D3-4D90-8414-E8340D02A6BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="11070" activeTab="1" xr2:uid="{71BF4958-A961-4E76-9BC7-C17C2F64A229}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="293">
   <si>
     <t xml:space="preserve">Bug Report </t>
   </si>
@@ -1810,10 +1810,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Vehicle Reported date should be same as date of job card validation appears which is not true for each case.</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve">Without entering EHS HRS new calim is created and able to create new claim even if EW start date is a future date </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1823,18 +1821,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Creating New Claim :- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Without entering EHS HRS new calim is created and able to create new claim even if EW start date is a future date </t>
-    </r>
+      <t>[Need to Discuss]</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1844,8 +1834,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[Need to Discuss]</t>
-    </r>
+      <t xml:space="preserve">Edit Claim :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>On Editing Claim when selecting Agreegate part list No Matches Found shows in drop down and previously entered part didn’t show anything</t>
+    </r>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1J_Edfi2KmVpFyfmvjSI_LkTHaKGp_4OJ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13dR1Tan5hcr2tcwBicjSxaz7WnWYgP6w</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1qUjTSzO1bK5TzzDlTcp70ja0p0W3tUgu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1UCWc1LAiDWWpQmA4ZzUicX6M7QDYEL2T</t>
   </si>
   <si>
     <r>
@@ -1857,7 +1869,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Edit Claim :- </t>
+      <t xml:space="preserve">Creating New Claim :- </t>
     </r>
     <r>
       <rPr>
@@ -1867,8 +1879,46 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>On Editing Claim when selecting Agreegate part list No Matches Found shows in drop down and previously entered part didn’t show anything</t>
-    </r>
+      <t xml:space="preserve">Vehicle Reported date should be same as date of job card validation appears which is not true for each case. And instead of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Vehicle Reported date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">it is showing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>failure date</t>
+    </r>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1aKE4SP5TyR7FP0DHdM8fxRA3DDjNY81Q</t>
+  </si>
+  <si>
+    <t>Old</t>
   </si>
 </sst>
 </file>
@@ -2072,7 +2122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2084,32 +2134,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -2179,13 +2203,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2214,13 +2368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2274,17 +2422,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2307,22 +2449,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2354,6 +2484,39 @@
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2671,89 +2834,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303FBBA8-498C-487C-8120-B26BD68D0EC8}">
-  <dimension ref="D8:H11"/>
+  <dimension ref="D6:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D8:H11"/>
+      <selection activeCell="E11" sqref="D7:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="6" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
+    </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="10" t="s">
+      <c r="D8" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="G8" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="44"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="50"/>
+      <c r="H8" s="55"/>
     </row>
     <row r="9" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="57" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="10" spans="4:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="E10" s="31">
-        <v>60</v>
-      </c>
-      <c r="F10" s="31">
-        <v>60</v>
-      </c>
-      <c r="G10" s="31">
-        <v>49</v>
-      </c>
-      <c r="H10" s="31">
-        <v>11</v>
+      <c r="E10" s="28">
+        <v>70</v>
+      </c>
+      <c r="F10" s="28">
+        <v>70</v>
+      </c>
+      <c r="G10" s="28">
+        <v>62</v>
+      </c>
+      <c r="H10" s="59">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="4:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="41">
-        <v>60</v>
-      </c>
-      <c r="F11" s="41">
-        <v>60</v>
-      </c>
-      <c r="G11" s="41">
-        <v>49</v>
-      </c>
-      <c r="H11" s="42">
-        <v>11</v>
+      <c r="E11" s="37">
+        <v>70</v>
+      </c>
+      <c r="F11" s="37">
+        <v>70</v>
+      </c>
+      <c r="G11" s="37">
+        <v>62</v>
+      </c>
+      <c r="H11" s="38">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G8:H8"/>
+  <mergeCells count="3">
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="F8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2765,7 +2937,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2780,7 +2952,7 @@
     <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
@@ -2788,418 +2960,428 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="49" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="49" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50">
+      <c r="I3" s="41"/>
+      <c r="J3" s="42">
         <v>10098</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="P4" s="31" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
+      <c r="A5" s="33">
         <v>43882</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="38" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="39" t="s">
+      <c r="K5" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
+      <c r="A6" s="33">
         <v>43882</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="38" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
+      <c r="K6" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
+      <c r="A7" s="33">
         <v>43882</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="14" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="39" t="s">
+      <c r="K7" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-    </row>
-    <row r="8" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+    </row>
+    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
         <v>43886</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="L8" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+    </row>
+    <row r="9" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
         <v>43886</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="I9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
+      <c r="L9" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
     </row>
     <row r="10" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
+      <c r="A10" s="33">
         <v>43886</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="D10" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="E10" s="34" t="s">
+      <c r="D10" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="14" t="s">
+      <c r="G10" s="35"/>
+      <c r="H10" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-    </row>
-    <row r="11" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="37">
+      <c r="L10" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+    </row>
+    <row r="11" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
         <v>43886</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39" t="s">
+      <c r="G11" s="35"/>
+      <c r="H11" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="I11" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
+      <c r="L11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
     </row>
     <row r="12" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
+      <c r="A12" s="33">
         <v>43886</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D12" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="E12" s="34" t="s">
+      <c r="D12" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39" t="s">
+      <c r="G12" s="35"/>
+      <c r="H12" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="I12" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
+      <c r="L12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3217,9 +3399,14 @@
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1" xr:uid="{2E47CA53-C8C5-4CFE-A30D-2B5766C29EAA}"/>
     <hyperlink ref="H6" r:id="rId2" xr:uid="{6F121A93-262C-40FF-B566-5753FC6E0199}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{FA10B6B2-B0FF-45CB-AC5C-CD41599713B2}"/>
+    <hyperlink ref="H9" r:id="rId4" xr:uid="{2E551D53-481B-4B50-B706-F54C3C476176}"/>
+    <hyperlink ref="H10" r:id="rId5" xr:uid="{5624D1AC-4082-473B-BA9B-398B76330ECE}"/>
+    <hyperlink ref="H11" r:id="rId6" xr:uid="{A7A5A4DF-F546-433F-A8B9-66BBF1DF97C0}"/>
+    <hyperlink ref="H12" r:id="rId7" xr:uid="{F21F38FA-17AD-4DD2-9A45-A8F340035A94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -3227,7 +3414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF4CAF1-232E-4AEA-890D-E05F5607E20D}">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A61" sqref="A61:P61"/>
     </sheetView>
   </sheetViews>
@@ -3252,76 +3439,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="49" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="49" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50">
+      <c r="I3" s="41"/>
+      <c r="J3" s="42">
         <v>10008</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3374,2095 +3561,2095 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="15">
         <v>43866</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="17" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="21"/>
+      <c r="K5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="19"/>
     </row>
     <row r="6" spans="1:16" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="15">
         <v>43866</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="17" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="K6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
     </row>
     <row r="7" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="15">
         <v>43866</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="17" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="17" t="s">
+      <c r="K7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
     </row>
     <row r="8" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="15">
         <v>43867</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
+      <c r="K8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
     </row>
     <row r="9" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="15">
         <v>43867</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
+      <c r="K9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
     </row>
     <row r="10" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="15">
         <v>43868</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="21" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
+      <c r="K10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
     </row>
     <row r="11" spans="1:16" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="15">
         <v>43868</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="21" t="s">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
+      <c r="K11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
     </row>
     <row r="12" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="15">
         <v>43868</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="22" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
+      <c r="K12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="15"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="15">
         <v>43868</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="22" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="17" t="s">
+      <c r="K13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="21"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="19"/>
     </row>
     <row r="14" spans="1:16" ht="102" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="15">
         <v>43868</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
+      <c r="K14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="15"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="15">
         <v>43868</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="22" t="s">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
+      <c r="K15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" s="15"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
     </row>
     <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="15">
         <v>43868</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="22" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
+      <c r="K16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="15"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
     </row>
     <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="15">
         <v>43868</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="22" t="s">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
+      <c r="K17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="15"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
     </row>
     <row r="18" spans="1:16" ht="102" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="15">
         <v>43868</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17" t="s">
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="17" t="s">
+      <c r="K18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="N18" s="17"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
     </row>
     <row r="19" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="15">
         <v>43868</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17" t="s">
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N19" s="17"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
+      <c r="K19" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19" s="15"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
     </row>
     <row r="20" spans="1:16" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="15">
         <v>43860</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="22" t="s">
+      <c r="G20" s="16"/>
+      <c r="H20" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
+      <c r="K20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" s="15"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
     </row>
     <row r="21" spans="1:16" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="15">
         <v>43860</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="17" t="s">
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
+      <c r="K21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N21" s="15"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
     </row>
     <row r="22" spans="1:16" ht="102" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="15">
         <v>43860</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="17" t="s">
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
+      <c r="K22" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" s="15"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
     </row>
     <row r="23" spans="1:16" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="15">
         <v>43860</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="21" t="s">
+      <c r="G23" s="16"/>
+      <c r="H23" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="K23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
+      <c r="K23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N23" s="15"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
     </row>
     <row r="24" spans="1:16" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="15">
         <v>43860</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="21" t="s">
+      <c r="G24" s="16"/>
+      <c r="H24" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="17" t="s">
+      <c r="K24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
     </row>
     <row r="25" spans="1:16" ht="153" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="A25" s="15">
         <v>43860</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="21" t="s">
+      <c r="G25" s="16"/>
+      <c r="H25" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N25" s="17"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
+      <c r="K25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N25" s="15"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
     </row>
     <row r="26" spans="1:16" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="15">
         <v>43860</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="22" t="s">
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L26" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N26" s="17"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
+      <c r="K26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N26" s="15"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
     </row>
     <row r="27" spans="1:16" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="A27" s="15">
         <v>43860</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18" t="s">
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="K27" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="L27" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N27" s="17"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
+      <c r="L27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N27" s="15"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
     </row>
     <row r="28" spans="1:16" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="15">
         <v>43860</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="22" t="s">
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I28" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="K28" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="L28" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" s="17" t="s">
+      <c r="L28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="N28" s="17"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
     </row>
     <row r="29" spans="1:16" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="A29" s="15">
         <v>43866</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="17" t="s">
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="I29" s="17" t="s">
+      <c r="I29" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K29" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N29" s="17"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
+      <c r="K29" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N29" s="15"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
     </row>
     <row r="30" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="A30" s="15">
         <v>43866</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="17" t="s">
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K30" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N30" s="17"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
+      <c r="K30" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N30" s="15"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
     </row>
     <row r="31" spans="1:16" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="A31" s="15">
         <v>43866</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17" t="s">
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K31" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
+      <c r="K31" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N31" s="15"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
     </row>
     <row r="32" spans="1:16" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="A32" s="15">
         <v>43866</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17" t="s">
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="J32" s="17" t="s">
+      <c r="J32" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="K32" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N32" s="17"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
+      <c r="K32" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N32" s="15"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
     </row>
     <row r="33" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+      <c r="A33" s="15">
         <v>43866</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17" t="s">
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="17" t="s">
+      <c r="J33" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K33" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N33" s="17"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
+      <c r="K33" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N33" s="15"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
     </row>
     <row r="34" spans="1:19" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+      <c r="A34" s="15">
         <v>43866</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="17" t="s">
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="I34" s="17" t="s">
+      <c r="I34" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J34" s="17" t="s">
+      <c r="J34" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K34" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L34" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M34" s="17" t="s">
+      <c r="K34" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="N34" s="17"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="21"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="19"/>
     </row>
     <row r="35" spans="1:19" ht="51" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+      <c r="A35" s="15">
         <v>43866</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17" t="s">
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K35" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L35" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N35" s="17"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
+      <c r="K35" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N35" s="15"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
     </row>
     <row r="36" spans="1:19" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+      <c r="A36" s="15">
         <v>43866</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="17" t="s">
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K36" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M36" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N36" s="17"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
+      <c r="K36" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N36" s="15"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
     </row>
     <row r="37" spans="1:19" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
+      <c r="A37" s="15">
         <v>43866</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17" t="s">
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="J37" s="17" t="s">
+      <c r="J37" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="K37" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L37" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M37" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N37" s="17"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
+      <c r="K37" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N37" s="15"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
     </row>
     <row r="38" spans="1:19" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
+      <c r="A38" s="15">
         <v>43866</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="17" t="s">
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="I38" s="17" t="s">
+      <c r="I38" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J38" s="17" t="s">
+      <c r="J38" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K38" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L38" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M38" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N38" s="17"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="21"/>
+      <c r="K38" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N38" s="15"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="19"/>
     </row>
     <row r="39" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
+      <c r="A39" s="22">
         <v>43876</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19" t="s">
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K39" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L39" s="19" t="s">
+      <c r="K39" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L39" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="M39" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N39" s="19"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
+      <c r="M39" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N39" s="17"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
     </row>
     <row r="40" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="24">
+      <c r="A40" s="22">
         <v>43876</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19" t="s">
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L40" s="19" t="s">
+      <c r="K40" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L40" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="M40" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N40" s="19"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
+      <c r="M40" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N40" s="17"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
     </row>
     <row r="41" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
+      <c r="A41" s="22">
         <v>43880</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19" t="s">
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K41" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L41" s="19" t="s">
+      <c r="K41" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L41" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="M41" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
+      <c r="M41" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
     </row>
     <row r="42" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
+      <c r="A42" s="22">
         <v>43880</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="G42" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19" t="s">
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K42" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L42" s="19" t="s">
+      <c r="K42" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L42" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="M42" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
+      <c r="M42" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
     </row>
     <row r="43" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
+      <c r="A43" s="15">
         <v>43866</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17" t="s">
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J43" s="17" t="s">
+      <c r="J43" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K43" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L43" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M43" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N43" s="17"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
+      <c r="K43" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N43" s="15"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
     </row>
     <row r="44" spans="1:19" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
+      <c r="A44" s="15">
         <v>43860</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18" t="s">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="22" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="I44" s="17" t="s">
+      <c r="I44" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J44" s="17" t="s">
+      <c r="J44" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K44" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L44" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M44" s="17" t="s">
+      <c r="K44" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="N44" s="17"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
     </row>
     <row r="45" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="24">
+      <c r="A45" s="22">
         <v>43874</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19" t="s">
+      <c r="B45" s="17"/>
+      <c r="C45" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19" t="s">
+      <c r="F45" s="17"/>
+      <c r="G45" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="28" t="s">
+      <c r="H45" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19" t="s">
+      <c r="I45" s="17"/>
+      <c r="J45" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K45" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L45" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M45" s="19" t="s">
+      <c r="K45" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="L45" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
     </row>
     <row r="46" spans="1:19" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
+      <c r="A46" s="22">
         <v>43874</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19" t="s">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19" t="s">
+      <c r="F46" s="17"/>
+      <c r="G46" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H46" s="28" t="s">
+      <c r="H46" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19" t="s">
+      <c r="I46" s="17"/>
+      <c r="J46" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K46" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L46" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M46" s="19" t="s">
+      <c r="K46" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="L46" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
     </row>
     <row r="47" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
+      <c r="A47" s="22">
         <v>43874</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19" t="s">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="28" t="s">
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19" t="s">
+      <c r="I47" s="17"/>
+      <c r="J47" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K47" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L47" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M47" s="19" t="s">
+      <c r="K47" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="L47" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
     </row>
     <row r="48" spans="1:19" ht="105" x14ac:dyDescent="0.25">
-      <c r="A48" s="24">
+      <c r="A48" s="22">
         <v>43874</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19" t="s">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="28" t="s">
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19" t="s">
+      <c r="I48" s="17"/>
+      <c r="J48" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K48" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L48" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M48" s="19" t="s">
+      <c r="K48" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="L48" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
     </row>
     <row r="49" spans="1:16" ht="120" x14ac:dyDescent="0.25">
-      <c r="A49" s="24">
+      <c r="A49" s="22">
         <v>43874</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19" t="s">
+      <c r="B49" s="17"/>
+      <c r="C49" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="28" t="s">
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19" t="s">
+      <c r="I49" s="17"/>
+      <c r="J49" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K49" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L49" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M49" s="19" t="s">
+      <c r="K49" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="L49" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
     </row>
     <row r="50" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="24">
+      <c r="A50" s="22">
         <v>43874</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19" t="s">
+      <c r="B50" s="17"/>
+      <c r="C50" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="28" t="s">
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19" t="s">
+      <c r="I50" s="17"/>
+      <c r="J50" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K50" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L50" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M50" s="19" t="s">
+      <c r="K50" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="L50" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
     </row>
     <row r="51" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="24">
+      <c r="A51" s="22">
         <v>43874</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19" t="s">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="28" t="s">
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19" t="s">
+      <c r="I51" s="17"/>
+      <c r="J51" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K51" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L51" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M51" s="19" t="s">
+      <c r="K51" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="L51" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
     </row>
     <row r="52" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="24">
+      <c r="A52" s="22">
         <v>43874</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19" t="s">
+      <c r="B52" s="17"/>
+      <c r="C52" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="28" t="s">
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19" t="s">
+      <c r="I52" s="17"/>
+      <c r="J52" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K52" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L52" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M52" s="19" t="s">
+      <c r="K52" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="L52" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
     </row>
     <row r="53" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="24">
+      <c r="A53" s="22">
         <v>43874</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19" t="s">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="28" t="s">
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19" t="s">
+      <c r="I53" s="17"/>
+      <c r="J53" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K53" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L53" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M53" s="19" t="s">
+      <c r="K53" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="L53" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
     </row>
     <row r="54" spans="1:16" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
+      <c r="A54" s="12">
         <v>43860</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="12" t="s">
         <v>92</v>
       </c>
       <c r="G54" s="9"/>
-      <c r="H54" s="26" t="s">
+      <c r="H54" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="I54" s="14" t="s">
+      <c r="I54" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J54" s="14" t="s">
+      <c r="J54" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K54" s="14" t="s">
+      <c r="K54" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L54" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M54" s="14" t="s">
+      <c r="L54" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="N54" s="14"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
     </row>
     <row r="55" spans="1:16" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
+      <c r="A55" s="12">
         <v>43860</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="14"/>
+      <c r="F55" s="12"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="26" t="s">
+      <c r="H55" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="I55" s="14" t="s">
+      <c r="I55" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J55" s="14" t="s">
+      <c r="J55" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K55" s="14" t="s">
+      <c r="K55" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L55" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M55" s="14" t="s">
+      <c r="L55" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="N55" s="14"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
     </row>
     <row r="56" spans="1:16" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
+      <c r="A56" s="12">
         <v>43860</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F56" s="12" t="s">
         <v>103</v>
       </c>
       <c r="G56" s="9"/>
-      <c r="H56" s="26" t="s">
+      <c r="H56" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="I56" s="14" t="s">
+      <c r="I56" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J56" s="14" t="s">
+      <c r="J56" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K56" s="14" t="s">
+      <c r="K56" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L56" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M56" s="14" t="s">
+      <c r="L56" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="N56" s="14"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
     </row>
     <row r="57" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="37">
+      <c r="A57" s="33">
         <v>43882</v>
       </c>
-      <c r="B57" s="39"/>
+      <c r="B57" s="35"/>
       <c r="C57" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D57" s="39" t="s">
+      <c r="D57" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="38" t="s">
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="I57" s="14" t="s">
+      <c r="I57" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J57" s="14" t="s">
+      <c r="J57" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K57" s="14" t="s">
+      <c r="K57" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L57" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M57" s="39" t="s">
+      <c r="L57" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="39"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
     </row>
     <row r="58" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="37">
+      <c r="A58" s="33">
         <v>43882</v>
       </c>
-      <c r="B58" s="39"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D58" s="39" t="s">
+      <c r="D58" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="38" t="s">
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="I58" s="14" t="s">
+      <c r="I58" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J58" s="14" t="s">
+      <c r="J58" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K58" s="14" t="s">
+      <c r="K58" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L58" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M58" s="39" t="s">
+      <c r="L58" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
     </row>
     <row r="59" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="37">
+      <c r="A59" s="33">
         <v>43882</v>
       </c>
-      <c r="B59" s="39"/>
+      <c r="B59" s="35"/>
       <c r="C59" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D59" s="39" t="s">
+      <c r="D59" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="38" t="s">
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="I59" s="14" t="s">
+      <c r="I59" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J59" s="14" t="s">
+      <c r="J59" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K59" s="14" t="s">
+      <c r="K59" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L59" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M59" s="39" t="s">
+      <c r="L59" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
     </row>
     <row r="60" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="37">
+      <c r="A60" s="33">
         <v>43882</v>
       </c>
-      <c r="B60" s="39"/>
+      <c r="B60" s="35"/>
       <c r="C60" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="D60" s="39" t="s">
+      <c r="D60" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="38" t="s">
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="I60" s="14" t="s">
+      <c r="I60" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J60" s="14" t="s">
+      <c r="J60" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K60" s="14" t="s">
+      <c r="K60" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L60" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M60" s="39" t="s">
+      <c r="L60" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M60" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
     </row>
     <row r="61" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A61" s="37">
+      <c r="A61" s="33">
         <v>43882</v>
       </c>
-      <c r="B61" s="39"/>
+      <c r="B61" s="35"/>
       <c r="C61" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="D61" s="39" t="s">
+      <c r="D61" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="38" t="s">
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="I61" s="14" t="s">
+      <c r="I61" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J61" s="14" t="s">
+      <c r="J61" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K61" s="14" t="s">
+      <c r="K61" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L61" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M61" s="39" t="s">
+      <c r="L61" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M61" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="N61" s="39"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="39"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5532,15 +5719,15 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -5549,15 +5736,15 @@
       <c r="A2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="6" t="s">
         <v>181</v>
       </c>
@@ -5572,19 +5759,19 @@
       <c r="A3" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="56">
+      <c r="B3" s="48">
         <v>43875</v>
       </c>
-      <c r="C3" s="56"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>225</v>
       </c>
       <c r="I3" s="5"/>
@@ -5595,15 +5782,15 @@
       <c r="A4" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="6" t="s">
         <v>189</v>
       </c>

--- a/Bug_Report_And_Test-case_Volvo Eicher Claim.xlsx
+++ b/Bug_Report_And_Test-case_Volvo Eicher Claim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Documents\GitHub\Test-Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CF1A8A-73D3-4D90-8414-E8340D02A6BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74557B22-2C5E-4D50-8D38-3C97210414A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="11070" activeTab="1" xr2:uid="{71BF4958-A961-4E76-9BC7-C17C2F64A229}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="2" xr2:uid="{71BF4958-A961-4E76-9BC7-C17C2F64A229}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="301">
   <si>
     <t xml:space="preserve">Bug Report </t>
   </si>
@@ -1919,6 +1919,113 @@
   </si>
   <si>
     <t>Old</t>
+  </si>
+  <si>
+    <t>Bug_ID_66</t>
+  </si>
+  <si>
+    <t>Bug_ID_67</t>
+  </si>
+  <si>
+    <t>Bug_ID_69</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EW claim invoice verified:-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Drop down [Yes/Verification pending/Incorrect invoice uploaded] field is present but should be editable by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manager and Admin Only</t>
+    </r>
+  </si>
+  <si>
+    <t>On Creat new Claim or Edit Claim Page</t>
+  </si>
+  <si>
+    <t>1) Login with manager/Dealer account
+2) Add claim / Edit Claim</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Vehicle Reported Date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">should be equal or 2 days less than </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Job card Date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dealer Contact No. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is accepting value less than 10 digit</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2339,7 +2446,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2446,13 +2553,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2485,38 +2628,8 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2851,27 +2964,27 @@
   <sheetData>
     <row r="6" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="55"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
     </row>
     <row r="9" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="40" t="s">
         <v>223</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -2883,12 +2996,12 @@
       <c r="G9" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="41" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="10" spans="4:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="42" t="s">
         <v>273</v>
       </c>
       <c r="E10" s="28">
@@ -2900,7 +3013,7 @@
       <c r="G10" s="28">
         <v>62</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="43">
         <v>8</v>
       </c>
     </row>
@@ -2908,16 +3021,16 @@
       <c r="D11" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="36">
         <v>70</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="36">
         <v>70</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="36">
         <v>62</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="37">
         <v>8</v>
       </c>
     </row>
@@ -2934,10 +3047,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBD0D03-4052-434A-81DB-12104B29E3C9}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2960,76 +3073,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="41" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="54"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="41" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42">
+      <c r="I3" s="53"/>
+      <c r="J3" s="54">
         <v>10098</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
@@ -3085,18 +3198,18 @@
       <c r="A5" s="33">
         <v>43882</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="38" t="s">
         <v>263</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="34" t="s">
         <v>252</v>
       </c>
@@ -3112,29 +3225,29 @@
       <c r="L5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="M5" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
     </row>
     <row r="6" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>43882</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="38" t="s">
         <v>267</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="34" t="s">
         <v>256</v>
       </c>
@@ -3150,16 +3263,16 @@
       <c r="L6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
     </row>
     <row r="7" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>43882</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="9" t="s">
         <v>272</v>
       </c>
@@ -3186,22 +3299,22 @@
       <c r="L7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
     </row>
     <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>43886</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="38" t="s">
         <v>281</v>
       </c>
       <c r="E8" s="30" t="s">
@@ -3210,14 +3323,14 @@
       <c r="F8" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="G8" s="35"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="38" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="12" t="s">
@@ -3226,20 +3339,20 @@
       <c r="L8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
     </row>
     <row r="9" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>43886</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="38" t="s">
         <v>282</v>
       </c>
       <c r="E9" s="30" t="s">
@@ -3248,14 +3361,14 @@
       <c r="F9" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="G9" s="35"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="38" t="s">
         <v>30</v>
       </c>
       <c r="K9" s="12" t="s">
@@ -3264,20 +3377,20 @@
       <c r="L9" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
     </row>
     <row r="10" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>43886</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="38" t="s">
         <v>285</v>
       </c>
       <c r="E10" s="30" t="s">
@@ -3286,7 +3399,7 @@
       <c r="F10" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="G10" s="35"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="34" t="s">
         <v>288</v>
       </c>
@@ -3302,20 +3415,20 @@
       <c r="L10" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
     </row>
     <row r="11" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>43886</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="38" t="s">
         <v>290</v>
       </c>
       <c r="E11" s="30" t="s">
@@ -3324,14 +3437,14 @@
       <c r="F11" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="G11" s="35"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="38" t="s">
         <v>30</v>
       </c>
       <c r="K11" s="12" t="s">
@@ -3340,20 +3453,20 @@
       <c r="L11" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
     </row>
     <row r="12" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>43886</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="38" t="s">
         <v>284</v>
       </c>
       <c r="E12" s="30" t="s">
@@ -3362,14 +3475,14 @@
       <c r="F12" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="G12" s="35"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="38" t="s">
         <v>30</v>
       </c>
       <c r="K12" s="12" t="s">
@@ -3378,10 +3491,184 @@
       <c r="L12" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+    </row>
+    <row r="13" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>43889</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+    </row>
+    <row r="14" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>43889</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+    </row>
+    <row r="15" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>43889</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>43889</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>43889</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>43889</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3414,8 +3701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF4CAF1-232E-4AEA-890D-E05F5607E20D}">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:P61"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K61" sqref="A1:P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3439,45 +3726,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="54"/>
       <c r="L2" s="14"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -3485,25 +3772,25 @@
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42">
+      <c r="I3" s="53"/>
+      <c r="J3" s="54">
         <v>10008</v>
       </c>
-      <c r="K3" s="42"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="14"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
@@ -5370,8 +5657,8 @@
       <c r="J54" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K54" s="12" t="s">
-        <v>29</v>
+      <c r="K54" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="L54" s="30" t="s">
         <v>23</v>
@@ -5408,8 +5695,8 @@
       <c r="J55" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K55" s="12" t="s">
-        <v>29</v>
+      <c r="K55" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="L55" s="30" t="s">
         <v>23</v>
@@ -5448,8 +5735,8 @@
       <c r="J56" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K56" s="12" t="s">
-        <v>29</v>
+      <c r="K56" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="L56" s="30" t="s">
         <v>23</v>
@@ -5486,8 +5773,8 @@
       <c r="J57" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K57" s="12" t="s">
-        <v>29</v>
+      <c r="K57" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="L57" s="30" t="s">
         <v>23</v>
@@ -5524,8 +5811,8 @@
       <c r="J58" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K58" s="12" t="s">
-        <v>29</v>
+      <c r="K58" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="L58" s="30" t="s">
         <v>23</v>
@@ -5562,8 +5849,8 @@
       <c r="J59" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K59" s="12" t="s">
-        <v>29</v>
+      <c r="K59" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="L59" s="30" t="s">
         <v>23</v>
@@ -5600,8 +5887,8 @@
       <c r="J60" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K60" s="12" t="s">
-        <v>29</v>
+      <c r="K60" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="L60" s="30" t="s">
         <v>23</v>
@@ -5638,8 +5925,8 @@
       <c r="J61" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K61" s="12" t="s">
-        <v>29</v>
+      <c r="K61" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="L61" s="30" t="s">
         <v>23</v>
@@ -5719,15 +6006,15 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -5736,15 +6023,15 @@
       <c r="A2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="47"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
       <c r="G2" s="6" t="s">
         <v>181</v>
       </c>
@@ -5759,15 +6046,15 @@
       <c r="A3" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="60">
         <v>43875</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="6" t="s">
         <v>185</v>
       </c>
@@ -5782,15 +6069,15 @@
       <c r="A4" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="45"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="6" t="s">
         <v>189</v>
       </c>

--- a/Bug_Report_And_Test-case_Volvo Eicher Claim.xlsx
+++ b/Bug_Report_And_Test-case_Volvo Eicher Claim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Documents\GitHub\Test-Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493D0BE2-4AF0-4E6D-8CF3-4A616431E640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2C0CCB-BD95-47BC-8CC2-EEAF6973FFC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" tabRatio="588" firstSheet="1" activeTab="3" xr2:uid="{71BF4958-A961-4E76-9BC7-C17C2F64A229}"/>
   </bookViews>
@@ -21,6 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bug_Report!$K$4:$K$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Claim!$L$5:$L$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Closed_Bug!$K$4:$K$43</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="590">
   <si>
     <t xml:space="preserve">Bug Report </t>
   </si>
@@ -6364,7 +6365,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6492,6 +6493,22 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6528,10 +6545,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6542,25 +6565,6 @@
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6895,24 +6899,24 @@
   <sheetData>
     <row r="6" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="48" t="s">
+      <c r="E8" s="50"/>
+      <c r="F8" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="55"/>
     </row>
     <row r="9" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="34" t="s">
@@ -7004,45 +7008,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="51"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="53" t="s">
+      <c r="I2" s="58"/>
+      <c r="J2" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="53"/>
+      <c r="K2" s="59"/>
       <c r="L2" s="39"/>
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
@@ -7050,25 +7054,25 @@
       <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53">
+      <c r="I3" s="58"/>
+      <c r="J3" s="59">
         <v>10098</v>
       </c>
-      <c r="K3" s="53"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="39"/>
       <c r="M3" s="38"/>
       <c r="N3" s="38"/>
@@ -7504,45 +7508,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="51"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="53" t="s">
+      <c r="I2" s="58"/>
+      <c r="J2" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="K2" s="53"/>
+      <c r="K2" s="59"/>
       <c r="L2" s="13"/>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
@@ -7550,25 +7554,25 @@
       <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53">
+      <c r="I3" s="58"/>
+      <c r="J3" s="59">
         <v>10008</v>
       </c>
-      <c r="K3" s="53"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="13"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
@@ -7625,7 +7629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="60" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="44" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>43866</v>
       </c>
@@ -7659,7 +7663,7 @@
       <c r="O5" s="17"/>
       <c r="P5" s="18"/>
     </row>
-    <row r="6" spans="1:16" s="60" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="44" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43866</v>
       </c>
@@ -7693,7 +7697,7 @@
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
     </row>
-    <row r="7" spans="1:16" s="60" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="44" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>43866</v>
       </c>
@@ -7727,7 +7731,7 @@
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
     </row>
-    <row r="8" spans="1:16" s="60" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="44" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43867</v>
       </c>
@@ -7761,7 +7765,7 @@
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:16" s="60" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="44" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43867</v>
       </c>
@@ -7795,7 +7799,7 @@
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
     </row>
-    <row r="10" spans="1:16" s="60" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="44" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>43868</v>
       </c>
@@ -7835,7 +7839,7 @@
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:16" s="60" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="44" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>43868</v>
       </c>
@@ -7871,7 +7875,7 @@
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16" s="60" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="44" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>43868</v>
       </c>
@@ -7907,7 +7911,7 @@
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
     </row>
-    <row r="13" spans="1:16" s="60" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="44" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>43868</v>
       </c>
@@ -7943,7 +7947,7 @@
       <c r="O13" s="17"/>
       <c r="P13" s="18"/>
     </row>
-    <row r="14" spans="1:16" s="60" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="44" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>43868</v>
       </c>
@@ -7977,7 +7981,7 @@
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
     </row>
-    <row r="15" spans="1:16" s="60" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>43868</v>
       </c>
@@ -8013,7 +8017,7 @@
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:16" s="60" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>43868</v>
       </c>
@@ -8049,7 +8053,7 @@
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16" s="60" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>43868</v>
       </c>
@@ -8085,7 +8089,7 @@
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16" s="60" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="44" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>43868</v>
       </c>
@@ -8119,7 +8123,7 @@
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16" s="60" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="44" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>43868</v>
       </c>
@@ -8153,7 +8157,7 @@
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="1:16" s="60" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="44" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>43860</v>
       </c>
@@ -8193,7 +8197,7 @@
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
     </row>
-    <row r="21" spans="1:16" s="60" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="44" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>43860</v>
       </c>
@@ -8231,7 +8235,7 @@
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="1:16" s="60" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="44" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>43860</v>
       </c>
@@ -8269,7 +8273,7 @@
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
     </row>
-    <row r="23" spans="1:16" s="60" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="44" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>43860</v>
       </c>
@@ -8309,7 +8313,7 @@
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
     </row>
-    <row r="24" spans="1:16" s="60" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="44" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>43860</v>
       </c>
@@ -8349,7 +8353,7 @@
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
     </row>
-    <row r="25" spans="1:16" s="60" customFormat="1" ht="153" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="44" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>43860</v>
       </c>
@@ -8389,7 +8393,7 @@
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
     </row>
-    <row r="26" spans="1:16" s="60" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="44" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>43860</v>
       </c>
@@ -8425,7 +8429,7 @@
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
     </row>
-    <row r="27" spans="1:16" s="60" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="44" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>43860</v>
       </c>
@@ -8461,7 +8465,7 @@
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
     </row>
-    <row r="28" spans="1:16" s="60" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="44" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>43860</v>
       </c>
@@ -8497,7 +8501,7 @@
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
     </row>
-    <row r="29" spans="1:16" s="60" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="44" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>43866</v>
       </c>
@@ -8533,7 +8537,7 @@
       <c r="O29" s="17"/>
       <c r="P29" s="17"/>
     </row>
-    <row r="30" spans="1:16" s="60" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="44" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>43866</v>
       </c>
@@ -8569,7 +8573,7 @@
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
     </row>
-    <row r="31" spans="1:16" s="60" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="44" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>43866</v>
       </c>
@@ -8603,7 +8607,7 @@
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
     </row>
-    <row r="32" spans="1:16" s="60" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="44" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>43866</v>
       </c>
@@ -8637,7 +8641,7 @@
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
     </row>
-    <row r="33" spans="1:19" s="60" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" s="44" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>43866</v>
       </c>
@@ -8671,7 +8675,7 @@
       <c r="O33" s="17"/>
       <c r="P33" s="17"/>
     </row>
-    <row r="34" spans="1:19" s="60" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="44" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>43866</v>
       </c>
@@ -8707,7 +8711,7 @@
       <c r="O34" s="17"/>
       <c r="P34" s="18"/>
     </row>
-    <row r="35" spans="1:19" s="60" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="44" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>43866</v>
       </c>
@@ -8741,7 +8745,7 @@
       <c r="O35" s="17"/>
       <c r="P35" s="17"/>
     </row>
-    <row r="36" spans="1:19" s="60" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" s="44" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>43866</v>
       </c>
@@ -8777,7 +8781,7 @@
       <c r="O36" s="17"/>
       <c r="P36" s="17"/>
     </row>
-    <row r="37" spans="1:19" s="60" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="44" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>43866</v>
       </c>
@@ -8811,7 +8815,7 @@
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
     </row>
-    <row r="38" spans="1:19" s="60" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="44" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>43866</v>
       </c>
@@ -8847,7 +8851,7 @@
       <c r="O38" s="17"/>
       <c r="P38" s="18"/>
     </row>
-    <row r="39" spans="1:19" s="60" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>43876</v>
       </c>
@@ -8887,7 +8891,7 @@
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
     </row>
-    <row r="40" spans="1:19" s="60" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>43876</v>
       </c>
@@ -8927,7 +8931,7 @@
       <c r="O40" s="21"/>
       <c r="P40" s="21"/>
     </row>
-    <row r="41" spans="1:19" s="60" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>43880</v>
       </c>
@@ -8967,7 +8971,7 @@
       <c r="O41" s="16"/>
       <c r="P41" s="16"/>
     </row>
-    <row r="42" spans="1:19" s="60" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>43880</v>
       </c>
@@ -9007,7 +9011,7 @@
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
     </row>
-    <row r="43" spans="1:19" s="60" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="44" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>43866</v>
       </c>
@@ -9040,11 +9044,11 @@
       <c r="N43" s="14"/>
       <c r="O43" s="17"/>
       <c r="P43" s="17"/>
-      <c r="Q43" s="61"/>
-      <c r="R43" s="61"/>
-      <c r="S43" s="61"/>
-    </row>
-    <row r="44" spans="1:19" s="60" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45"/>
+    </row>
+    <row r="44" spans="1:19" s="44" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>43860</v>
       </c>
@@ -9080,7 +9084,7 @@
       <c r="O44" s="17"/>
       <c r="P44" s="17"/>
     </row>
-    <row r="45" spans="1:19" s="60" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>43874</v>
       </c>
@@ -9118,7 +9122,7 @@
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
     </row>
-    <row r="46" spans="1:19" s="60" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="44" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>43874</v>
       </c>
@@ -9156,7 +9160,7 @@
       <c r="O46" s="16"/>
       <c r="P46" s="16"/>
     </row>
-    <row r="47" spans="1:19" s="60" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <v>43874</v>
       </c>
@@ -9192,7 +9196,7 @@
       <c r="O47" s="16"/>
       <c r="P47" s="16"/>
     </row>
-    <row r="48" spans="1:19" s="60" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="44" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="21">
         <v>43874</v>
       </c>
@@ -9228,7 +9232,7 @@
       <c r="O48" s="16"/>
       <c r="P48" s="16"/>
     </row>
-    <row r="49" spans="1:16" s="60" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="44" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>43874</v>
       </c>
@@ -9264,7 +9268,7 @@
       <c r="O49" s="16"/>
       <c r="P49" s="16"/>
     </row>
-    <row r="50" spans="1:16" s="60" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>43874</v>
       </c>
@@ -9300,7 +9304,7 @@
       <c r="O50" s="16"/>
       <c r="P50" s="16"/>
     </row>
-    <row r="51" spans="1:16" s="60" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="44" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>43874</v>
       </c>
@@ -9336,7 +9340,7 @@
       <c r="O51" s="16"/>
       <c r="P51" s="16"/>
     </row>
-    <row r="52" spans="1:16" s="60" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="44" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <v>43874</v>
       </c>
@@ -9372,7 +9376,7 @@
       <c r="O52" s="16"/>
       <c r="P52" s="16"/>
     </row>
-    <row r="53" spans="1:16" s="60" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>43874</v>
       </c>
@@ -9408,7 +9412,7 @@
       <c r="O53" s="16"/>
       <c r="P53" s="16"/>
     </row>
-    <row r="54" spans="1:16" s="60" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="44" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>43860</v>
       </c>
@@ -9448,7 +9452,7 @@
       <c r="O54" s="17"/>
       <c r="P54" s="17"/>
     </row>
-    <row r="55" spans="1:16" s="60" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="44" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>43860</v>
       </c>
@@ -9486,7 +9490,7 @@
       <c r="O55" s="17"/>
       <c r="P55" s="17"/>
     </row>
-    <row r="56" spans="1:16" s="60" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="44" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>43860</v>
       </c>
@@ -9526,7 +9530,7 @@
       <c r="O56" s="17"/>
       <c r="P56" s="17"/>
     </row>
-    <row r="57" spans="1:16" s="60" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <v>43882</v>
       </c>
@@ -9564,7 +9568,7 @@
       <c r="O57" s="16"/>
       <c r="P57" s="16"/>
     </row>
-    <row r="58" spans="1:16" s="60" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <v>43882</v>
       </c>
@@ -9602,7 +9606,7 @@
       <c r="O58" s="16"/>
       <c r="P58" s="16"/>
     </row>
-    <row r="59" spans="1:16" s="60" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>43882</v>
       </c>
@@ -9640,7 +9644,7 @@
       <c r="O59" s="16"/>
       <c r="P59" s="16"/>
     </row>
-    <row r="60" spans="1:16" s="60" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>43882</v>
       </c>
@@ -9678,7 +9682,7 @@
       <c r="O60" s="16"/>
       <c r="P60" s="16"/>
     </row>
-    <row r="61" spans="1:16" s="60" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <v>43882</v>
       </c>
@@ -9716,7 +9720,7 @@
       <c r="O61" s="16"/>
       <c r="P61" s="16"/>
     </row>
-    <row r="62" spans="1:16" s="60" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" s="44" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
         <v>43886</v>
       </c>
@@ -9754,7 +9758,7 @@
       <c r="O62" s="16"/>
       <c r="P62" s="16"/>
     </row>
-    <row r="63" spans="1:16" s="60" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="44" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
         <v>43886</v>
       </c>
@@ -9792,7 +9796,7 @@
       <c r="O63" s="16"/>
       <c r="P63" s="16"/>
     </row>
-    <row r="64" spans="1:16" s="60" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="44" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>43886</v>
       </c>
@@ -9881,10 +9885,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2831D2-A445-426B-8FFC-E7F640B9CC0F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="B59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9904,35 +9909,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="41"/>
       <c r="E2" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="41" t="s">
         <v>180</v>
       </c>
@@ -9947,16 +9952,16 @@
       <c r="A3" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="64">
         <v>43875</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="42"/>
       <c r="E3" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="41" t="s">
         <v>184</v>
       </c>
@@ -9972,15 +9977,15 @@
         <v>185</v>
       </c>
       <c r="B4" s="41"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="41"/>
       <c r="I4" s="40"/>
       <c r="J4" s="40"/>
@@ -10025,7 +10030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>295</v>
       </c>
@@ -10051,7 +10056,7 @@
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>296</v>
       </c>
@@ -10077,7 +10082,7 @@
       <c r="K7" s="38"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>297</v>
       </c>
@@ -10103,7 +10108,7 @@
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
     </row>
-    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>298</v>
       </c>
@@ -10131,7 +10136,7 @@
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>299</v>
       </c>
@@ -10187,11 +10192,17 @@
       <c r="I11" s="38" t="s">
         <v>360</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-    </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="J11" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>301</v>
       </c>
@@ -10219,7 +10230,7 @@
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
     </row>
-    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>302</v>
       </c>
@@ -10247,7 +10258,7 @@
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
     </row>
-    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>303</v>
       </c>
@@ -10275,7 +10286,7 @@
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
     </row>
-    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>304</v>
       </c>
@@ -10296,14 +10307,14 @@
       </c>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
-      <c r="I15" s="63" t="s">
+      <c r="I15" s="46" t="s">
         <v>368</v>
       </c>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
     </row>
-    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>305</v>
       </c>
@@ -10331,7 +10342,7 @@
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
     </row>
-    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>306</v>
       </c>
@@ -10359,7 +10370,7 @@
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
     </row>
-    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>307</v>
       </c>
@@ -10387,7 +10398,7 @@
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
     </row>
-    <row r="19" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>308</v>
       </c>
@@ -10438,14 +10449,20 @@
         <v>379</v>
       </c>
       <c r="H20" s="38"/>
-      <c r="I20" s="63" t="s">
+      <c r="I20" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-    </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="J20" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>310</v>
       </c>
@@ -10473,7 +10490,7 @@
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
     </row>
-    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
         <v>311</v>
       </c>
@@ -10524,14 +10541,20 @@
         <v>384</v>
       </c>
       <c r="H23" s="38"/>
-      <c r="I23" s="63" t="s">
+      <c r="I23" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-    </row>
-    <row r="24" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="J23" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>313</v>
       </c>
@@ -10552,14 +10575,14 @@
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
-      <c r="I24" s="63" t="s">
+      <c r="I24" s="46" t="s">
         <v>385</v>
       </c>
       <c r="J24" s="38"/>
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
     </row>
-    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
         <v>314</v>
       </c>
@@ -10587,7 +10610,7 @@
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
     </row>
-    <row r="26" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
         <v>315</v>
       </c>
@@ -10615,7 +10638,7 @@
       <c r="K26" s="38"/>
       <c r="L26" s="38"/>
     </row>
-    <row r="27" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
         <v>316</v>
       </c>
@@ -10643,7 +10666,7 @@
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
     </row>
-    <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
         <v>317</v>
       </c>
@@ -10671,7 +10694,7 @@
       <c r="K28" s="38"/>
       <c r="L28" s="38"/>
     </row>
-    <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
         <v>318</v>
       </c>
@@ -10699,7 +10722,7 @@
       <c r="K29" s="38"/>
       <c r="L29" s="38"/>
     </row>
-    <row r="30" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
         <v>319</v>
       </c>
@@ -10727,7 +10750,7 @@
       <c r="K30" s="38"/>
       <c r="L30" s="38"/>
     </row>
-    <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>320</v>
       </c>
@@ -10755,7 +10778,7 @@
       <c r="K31" s="38"/>
       <c r="L31" s="38"/>
     </row>
-    <row r="32" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>321</v>
       </c>
@@ -10783,7 +10806,7 @@
       <c r="K32" s="38"/>
       <c r="L32" s="38"/>
     </row>
-    <row r="33" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>322</v>
       </c>
@@ -10811,7 +10834,7 @@
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
     </row>
-    <row r="34" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>323</v>
       </c>
@@ -10839,7 +10862,7 @@
       <c r="K34" s="38"/>
       <c r="L34" s="38"/>
     </row>
-    <row r="35" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>324</v>
       </c>
@@ -10855,7 +10878,7 @@
       <c r="E35" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="F35" s="63" t="s">
+      <c r="F35" s="46" t="s">
         <v>407</v>
       </c>
       <c r="G35" s="38"/>
@@ -10867,7 +10890,7 @@
       <c r="K35" s="38"/>
       <c r="L35" s="38"/>
     </row>
-    <row r="36" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>325</v>
       </c>
@@ -10883,7 +10906,7 @@
       <c r="E36" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="F36" s="63" t="s">
+      <c r="F36" s="46" t="s">
         <v>408</v>
       </c>
       <c r="G36" s="38"/>
@@ -10911,10 +10934,10 @@
       <c r="E37" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="F37" s="64" t="s">
+      <c r="F37" s="47" t="s">
         <v>417</v>
       </c>
-      <c r="G37" s="65" t="s">
+      <c r="G37" s="48" t="s">
         <v>418</v>
       </c>
       <c r="H37" s="31" t="s">
@@ -10923,9 +10946,15 @@
       <c r="I37" s="38" t="s">
         <v>416</v>
       </c>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
+      <c r="J37" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37" s="43" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
@@ -10943,8 +10972,8 @@
       <c r="E38" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="F38" s="64"/>
-      <c r="G38" s="65" t="s">
+      <c r="F38" s="47"/>
+      <c r="G38" s="48" t="s">
         <v>438</v>
       </c>
       <c r="H38" s="31" t="s">
@@ -10953,11 +10982,17 @@
       <c r="I38" s="38" t="s">
         <v>437</v>
       </c>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-    </row>
-    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="J38" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="L38" s="43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
         <v>328</v>
       </c>
@@ -10983,7 +11018,7 @@
       <c r="K39" s="38"/>
       <c r="L39" s="38"/>
     </row>
-    <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
         <v>329</v>
       </c>
@@ -11011,7 +11046,7 @@
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
     </row>
-    <row r="41" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
         <v>330</v>
       </c>
@@ -11058,18 +11093,24 @@
       <c r="F42" s="38" t="s">
         <v>421</v>
       </c>
-      <c r="G42" s="65" t="s">
+      <c r="G42" s="48" t="s">
         <v>422</v>
       </c>
       <c r="H42" s="38"/>
       <c r="I42" s="38" t="s">
         <v>435</v>
       </c>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-    </row>
-    <row r="43" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="J42" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42" s="43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
         <v>332</v>
       </c>
@@ -11097,7 +11138,7 @@
       <c r="K43" s="38"/>
       <c r="L43" s="38"/>
     </row>
-    <row r="44" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
         <v>333</v>
       </c>
@@ -11125,7 +11166,7 @@
       <c r="K44" s="38"/>
       <c r="L44" s="38"/>
     </row>
-    <row r="45" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="40" t="s">
         <v>334</v>
       </c>
@@ -11153,7 +11194,7 @@
       <c r="K45" s="38"/>
       <c r="L45" s="38"/>
     </row>
-    <row r="46" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="40" t="s">
         <v>335</v>
       </c>
@@ -11181,7 +11222,7 @@
       <c r="K46" s="38"/>
       <c r="L46" s="38"/>
     </row>
-    <row r="47" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="40" t="s">
         <v>336</v>
       </c>
@@ -11209,7 +11250,7 @@
       <c r="K47" s="38"/>
       <c r="L47" s="38"/>
     </row>
-    <row r="48" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="40" t="s">
         <v>337</v>
       </c>
@@ -11237,7 +11278,7 @@
       <c r="K48" s="38"/>
       <c r="L48" s="38"/>
     </row>
-    <row r="49" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="40" t="s">
         <v>338</v>
       </c>
@@ -11265,7 +11306,7 @@
       <c r="K49" s="38"/>
       <c r="L49" s="38"/>
     </row>
-    <row r="50" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="40" t="s">
         <v>339</v>
       </c>
@@ -11293,7 +11334,7 @@
       <c r="K50" s="38"/>
       <c r="L50" s="38"/>
     </row>
-    <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="40" t="s">
         <v>340</v>
       </c>
@@ -11321,7 +11362,7 @@
       <c r="K51" s="38"/>
       <c r="L51" s="38"/>
     </row>
-    <row r="52" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="40" t="s">
         <v>341</v>
       </c>
@@ -11349,7 +11390,7 @@
       <c r="K52" s="38"/>
       <c r="L52" s="38"/>
     </row>
-    <row r="53" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="40" t="s">
         <v>342</v>
       </c>
@@ -11377,7 +11418,7 @@
       <c r="K53" s="38"/>
       <c r="L53" s="38"/>
     </row>
-    <row r="54" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="40" t="s">
         <v>343</v>
       </c>
@@ -11405,7 +11446,7 @@
       <c r="K54" s="38"/>
       <c r="L54" s="38"/>
     </row>
-    <row r="55" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="40" t="s">
         <v>414</v>
       </c>
@@ -11433,7 +11474,7 @@
       <c r="K55" s="38"/>
       <c r="L55" s="38"/>
     </row>
-    <row r="56" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="40" t="s">
         <v>436</v>
       </c>
@@ -11461,7 +11502,7 @@
       <c r="K56" s="38"/>
       <c r="L56" s="38"/>
     </row>
-    <row r="57" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="40" t="s">
         <v>456</v>
       </c>
@@ -11489,7 +11530,7 @@
       <c r="K57" s="38"/>
       <c r="L57" s="38"/>
     </row>
-    <row r="58" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="40" t="s">
         <v>457</v>
       </c>
@@ -11545,11 +11586,17 @@
       <c r="I59" s="38" t="s">
         <v>487</v>
       </c>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-    </row>
-    <row r="60" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="J59" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K59" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="L59" s="43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="40" t="s">
         <v>459</v>
       </c>
@@ -11575,7 +11622,7 @@
       <c r="K60" s="38"/>
       <c r="L60" s="38"/>
     </row>
-    <row r="61" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
         <v>460</v>
       </c>
@@ -11601,7 +11648,7 @@
       <c r="K61" s="38"/>
       <c r="L61" s="38"/>
     </row>
-    <row r="62" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="40" t="s">
         <v>461</v>
       </c>
@@ -11629,7 +11676,7 @@
       <c r="K62" s="38"/>
       <c r="L62" s="38"/>
     </row>
-    <row r="63" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
         <v>462</v>
       </c>
@@ -11657,7 +11704,7 @@
       <c r="K63" s="38"/>
       <c r="L63" s="38"/>
     </row>
-    <row r="64" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="40" t="s">
         <v>463</v>
       </c>
@@ -11685,7 +11732,7 @@
       <c r="K64" s="38"/>
       <c r="L64" s="38"/>
     </row>
-    <row r="65" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="40" t="s">
         <v>464</v>
       </c>
@@ -11713,7 +11760,7 @@
       <c r="K65" s="38"/>
       <c r="L65" s="38"/>
     </row>
-    <row r="66" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="40" t="s">
         <v>465</v>
       </c>
@@ -11741,7 +11788,7 @@
       <c r="K66" s="38"/>
       <c r="L66" s="38"/>
     </row>
-    <row r="67" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="40" t="s">
         <v>466</v>
       </c>
@@ -11769,7 +11816,7 @@
       <c r="K67" s="38"/>
       <c r="L67" s="38"/>
     </row>
-    <row r="68" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="40" t="s">
         <v>467</v>
       </c>
@@ -11797,7 +11844,7 @@
       <c r="K68" s="38"/>
       <c r="L68" s="38"/>
     </row>
-    <row r="69" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="40" t="s">
         <v>468</v>
       </c>
@@ -11825,7 +11872,7 @@
       <c r="K69" s="38"/>
       <c r="L69" s="38"/>
     </row>
-    <row r="70" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="40" t="s">
         <v>469</v>
       </c>
@@ -11853,7 +11900,7 @@
       <c r="K70" s="38"/>
       <c r="L70" s="38"/>
     </row>
-    <row r="71" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="40" t="s">
         <v>470</v>
       </c>
@@ -11881,7 +11928,7 @@
       <c r="K71" s="38"/>
       <c r="L71" s="38"/>
     </row>
-    <row r="72" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="40" t="s">
         <v>471</v>
       </c>
@@ -11909,7 +11956,7 @@
       <c r="K72" s="38"/>
       <c r="L72" s="38"/>
     </row>
-    <row r="73" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="40" t="s">
         <v>472</v>
       </c>
@@ -11937,7 +11984,7 @@
       <c r="K73" s="38"/>
       <c r="L73" s="38"/>
     </row>
-    <row r="74" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="40" t="s">
         <v>473</v>
       </c>
@@ -11965,7 +12012,7 @@
       <c r="K74" s="38"/>
       <c r="L74" s="38"/>
     </row>
-    <row r="75" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="40" t="s">
         <v>474</v>
       </c>
@@ -11993,7 +12040,7 @@
       <c r="K75" s="38"/>
       <c r="L75" s="38"/>
     </row>
-    <row r="76" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="40" t="s">
         <v>475</v>
       </c>
@@ -12021,7 +12068,7 @@
       <c r="K76" s="38"/>
       <c r="L76" s="38"/>
     </row>
-    <row r="77" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="40" t="s">
         <v>476</v>
       </c>
@@ -12077,11 +12124,17 @@
       <c r="I78" s="38" t="s">
         <v>487</v>
       </c>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
-    </row>
-    <row r="79" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="J78" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K78" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="L78" s="43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="40" t="s">
         <v>478</v>
       </c>
@@ -12107,7 +12160,7 @@
       <c r="K79" s="38"/>
       <c r="L79" s="38"/>
     </row>
-    <row r="80" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="40" t="s">
         <v>479</v>
       </c>
@@ -12135,7 +12188,7 @@
       <c r="K80" s="38"/>
       <c r="L80" s="38"/>
     </row>
-    <row r="81" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="40" t="s">
         <v>480</v>
       </c>
@@ -12163,7 +12216,7 @@
       <c r="K81" s="38"/>
       <c r="L81" s="38"/>
     </row>
-    <row r="82" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="40" t="s">
         <v>481</v>
       </c>
@@ -12191,7 +12244,7 @@
       <c r="K82" s="38"/>
       <c r="L82" s="38"/>
     </row>
-    <row r="83" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="40" t="s">
         <v>531</v>
       </c>
@@ -12219,7 +12272,7 @@
       <c r="K83" s="38"/>
       <c r="L83" s="38"/>
     </row>
-    <row r="84" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="40" t="s">
         <v>532</v>
       </c>
@@ -12247,7 +12300,7 @@
       <c r="K84" s="38"/>
       <c r="L84" s="38"/>
     </row>
-    <row r="85" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="40" t="s">
         <v>533</v>
       </c>
@@ -12275,7 +12328,7 @@
       <c r="K85" s="38"/>
       <c r="L85" s="38"/>
     </row>
-    <row r="86" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="40" t="s">
         <v>534</v>
       </c>
@@ -12303,7 +12356,7 @@
       <c r="K86" s="38"/>
       <c r="L86" s="38"/>
     </row>
-    <row r="87" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="40" t="s">
         <v>535</v>
       </c>
@@ -12331,7 +12384,7 @@
       <c r="K87" s="38"/>
       <c r="L87" s="38"/>
     </row>
-    <row r="88" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="40" t="s">
         <v>536</v>
       </c>
@@ -12357,7 +12410,7 @@
       <c r="K88" s="38"/>
       <c r="L88" s="38"/>
     </row>
-    <row r="89" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="40" t="s">
         <v>537</v>
       </c>
@@ -12383,7 +12436,7 @@
       <c r="K89" s="38"/>
       <c r="L89" s="38"/>
     </row>
-    <row r="90" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="40" t="s">
         <v>538</v>
       </c>
@@ -12411,7 +12464,7 @@
       <c r="K90" s="38"/>
       <c r="L90" s="38"/>
     </row>
-    <row r="91" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="40" t="s">
         <v>539</v>
       </c>
@@ -12439,7 +12492,7 @@
       <c r="K91" s="38"/>
       <c r="L91" s="38"/>
     </row>
-    <row r="92" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="40" t="s">
         <v>540</v>
       </c>
@@ -12467,7 +12520,7 @@
       <c r="K92" s="38"/>
       <c r="L92" s="38"/>
     </row>
-    <row r="93" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="40" t="s">
         <v>541</v>
       </c>
@@ -12495,7 +12548,7 @@
       <c r="K93" s="38"/>
       <c r="L93" s="38"/>
     </row>
-    <row r="94" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="40" t="s">
         <v>542</v>
       </c>
@@ -12549,11 +12602,17 @@
       <c r="I95" s="38" t="s">
         <v>578</v>
       </c>
-      <c r="J95" s="38"/>
-      <c r="K95" s="38"/>
-      <c r="L95" s="38"/>
-    </row>
-    <row r="96" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="J95" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K95" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="L95" s="43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="40" t="s">
         <v>544</v>
       </c>
@@ -12579,7 +12638,7 @@
       <c r="K96" s="38"/>
       <c r="L96" s="38"/>
     </row>
-    <row r="97" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="40" t="s">
         <v>545</v>
       </c>
@@ -12782,6 +12841,13 @@
       <c r="L105" s="38"/>
     </row>
   </sheetData>
+  <autoFilter ref="L5:L97" xr:uid="{56B42AAA-56CC-479D-98D5-32ABF90A9CEF}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="F2:G2"/>
@@ -12826,15 +12892,15 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -12843,15 +12909,15 @@
       <c r="A2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="5" t="s">
         <v>180</v>
       </c>
@@ -12866,15 +12932,15 @@
       <c r="A3" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="67">
         <v>43875</v>
       </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="5" t="s">
         <v>184</v>
       </c>
@@ -12889,15 +12955,15 @@
       <c r="A4" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="56"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="5" t="s">
         <v>188</v>
       </c>

--- a/Bug_Report_And_Test-case_Volvo Eicher Claim.xlsx
+++ b/Bug_Report_And_Test-case_Volvo Eicher Claim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Documents\GitHub\Test-Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4520BDDC-6FC1-44A3-A5A5-5D47DFF0C039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93CB70F-C1D6-4399-8895-B87816C3D7F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="11070" tabRatio="588" firstSheet="1" activeTab="1" xr2:uid="{71BF4958-A961-4E76-9BC7-C17C2F64A229}"/>
   </bookViews>
@@ -9365,6 +9365,9 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9420,9 +9423,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9758,24 +9758,24 @@
   <sheetData>
     <row r="6" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="54" t="s">
+      <c r="E8" s="51"/>
+      <c r="F8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
     </row>
     <row r="9" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="34" t="s">
@@ -9845,7 +9845,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:P10"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9868,45 +9868,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59" t="s">
+      <c r="I2" s="59"/>
+      <c r="J2" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="59"/>
+      <c r="K2" s="60"/>
       <c r="L2" s="39"/>
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
@@ -9914,25 +9914,25 @@
       <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="57"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59">
+      <c r="I3" s="59"/>
+      <c r="J3" s="60">
         <v>10098</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="39"/>
       <c r="M3" s="38"/>
       <c r="N3" s="38"/>
@@ -10185,7 +10185,7 @@
       <c r="C10" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="49" t="s">
         <v>762</v>
       </c>
       <c r="E10" s="45" t="s">
@@ -10266,45 +10266,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59" t="s">
+      <c r="I2" s="59"/>
+      <c r="J2" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="K2" s="59"/>
+      <c r="K2" s="60"/>
       <c r="L2" s="13"/>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
@@ -10312,25 +10312,25 @@
       <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="57"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59">
+      <c r="I3" s="59"/>
+      <c r="J3" s="60">
         <v>10008</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="13"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
@@ -12554,7 +12554,7 @@
       <c r="O63" s="16"/>
       <c r="P63" s="16"/>
     </row>
-    <row r="64" spans="1:16" s="40" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="40" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>43886</v>
       </c>
@@ -12666,35 +12666,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="47"/>
       <c r="E2" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
       <c r="H2" s="47" t="s">
         <v>180</v>
       </c>
@@ -12709,16 +12709,16 @@
       <c r="A3" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="65">
         <v>43892</v>
       </c>
-      <c r="C3" s="64"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="48"/>
       <c r="E3" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="47" t="s">
         <v>184</v>
       </c>
@@ -12734,15 +12734,15 @@
         <v>185</v>
       </c>
       <c r="B4" s="47"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="G4" s="62"/>
+      <c r="G4" s="63"/>
       <c r="H4" s="47"/>
       <c r="I4" s="46"/>
       <c r="J4" s="46"/>
@@ -16840,15 +16840,15 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -16857,15 +16857,15 @@
       <c r="A2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="66"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="5" t="s">
         <v>180</v>
       </c>
@@ -16880,15 +16880,15 @@
       <c r="A3" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="68">
         <v>43875</v>
       </c>
-      <c r="C3" s="67"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="5" t="s">
         <v>184</v>
       </c>
@@ -16903,15 +16903,15 @@
       <c r="A4" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="62"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="5" t="s">
         <v>188</v>
       </c>

--- a/Bug_Report_And_Test-case_Volvo Eicher Claim.xlsx
+++ b/Bug_Report_And_Test-case_Volvo Eicher Claim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Documents\GitHub\Test-Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93CB70F-C1D6-4399-8895-B87816C3D7F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266C5A7A-EE36-4812-9D37-0852FC3A4218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="11070" tabRatio="588" firstSheet="1" activeTab="1" xr2:uid="{71BF4958-A961-4E76-9BC7-C17C2F64A229}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="11070" tabRatio="588" firstSheet="1" activeTab="3" xr2:uid="{71BF4958-A961-4E76-9BC7-C17C2F64A229}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -2107,9 +2107,6 @@
     <t>Leave all Mandatory Field Blank and click on Save</t>
   </si>
   <si>
-    <t>Opo-up notification will display that this field is mandatory will display</t>
-  </si>
-  <si>
     <t>Leave Agreement No. blank and try to fill all remaining mandatory field</t>
   </si>
   <si>
@@ -8795,6 +8792,9 @@
   </si>
   <si>
     <t>New</t>
+  </si>
+  <si>
+    <t>Pop-up notification will display that this field is mandatory will display</t>
   </si>
 </sst>
 </file>
@@ -9843,8 +9843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBD0D03-4052-434A-81DB-12104B29E3C9}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -10186,13 +10186,13 @@
         <v>292</v>
       </c>
       <c r="D10" s="49" t="s">
+        <v>761</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>762</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>763</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
@@ -10203,7 +10203,7 @@
         <v>29</v>
       </c>
       <c r="K10" s="45" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L10" s="38" t="s">
         <v>23</v>
@@ -10241,8 +10241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF4CAF1-232E-4AEA-890D-E05F5607E20D}">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView topLeftCell="G60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:P64"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12645,8 +12645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2831D2-A445-426B-8FFC-E7F640B9CC0F}">
   <dimension ref="A1:L147"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12887,7 +12887,7 @@
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45" t="s">
-        <v>354</v>
+        <v>764</v>
       </c>
       <c r="J9" s="45"/>
       <c r="K9" s="45"/>
@@ -12910,12 +12910,12 @@
         <v>349</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
       <c r="I10" s="45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J10" s="45"/>
       <c r="K10" s="45"/>
@@ -12938,16 +12938,16 @@
         <v>349</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>285</v>
       </c>
       <c r="I11" s="45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J11" s="45" t="s">
         <v>45</v>
@@ -12976,12 +12976,12 @@
         <v>349</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J12" s="45"/>
       <c r="K12" s="45"/>
@@ -13004,12 +13004,12 @@
         <v>349</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
       <c r="I13" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J13" s="45"/>
       <c r="K13" s="45"/>
@@ -13032,12 +13032,12 @@
         <v>349</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="45"/>
       <c r="I14" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J14" s="45"/>
       <c r="K14" s="45"/>
@@ -13060,12 +13060,12 @@
         <v>349</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
       <c r="I15" s="42" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J15" s="45"/>
       <c r="K15" s="45"/>
@@ -13088,12 +13088,12 @@
         <v>349</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
       <c r="I16" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J16" s="45"/>
       <c r="K16" s="45"/>
@@ -13116,12 +13116,12 @@
         <v>349</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="45"/>
       <c r="I17" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J17" s="45"/>
       <c r="K17" s="45"/>
@@ -13144,12 +13144,12 @@
         <v>349</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J18" s="45"/>
       <c r="K18" s="45"/>
@@ -13172,12 +13172,12 @@
         <v>349</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="45" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J19" s="45"/>
       <c r="K19" s="45"/>
@@ -13200,14 +13200,14 @@
         <v>349</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H20" s="45"/>
       <c r="I20" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J20" s="45" t="s">
         <v>45</v>
@@ -13236,12 +13236,12 @@
         <v>349</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
       <c r="I21" s="45" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J21" s="45"/>
       <c r="K21" s="45"/>
@@ -13264,12 +13264,12 @@
         <v>349</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
       <c r="I22" s="45" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J22" s="45"/>
       <c r="K22" s="45"/>
@@ -13292,14 +13292,14 @@
         <v>349</v>
       </c>
       <c r="F23" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H23" s="45"/>
       <c r="I23" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J23" s="45" t="s">
         <v>45</v>
@@ -13328,12 +13328,12 @@
         <v>349</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
       <c r="I24" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J24" s="45"/>
       <c r="K24" s="45"/>
@@ -13356,12 +13356,12 @@
         <v>349</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G25" s="45"/>
       <c r="H25" s="45"/>
       <c r="I25" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J25" s="45"/>
       <c r="K25" s="45"/>
@@ -13384,12 +13384,12 @@
         <v>349</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
       <c r="I26" s="45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J26" s="45"/>
       <c r="K26" s="45"/>
@@ -13412,12 +13412,12 @@
         <v>349</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
       <c r="I27" s="45" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J27" s="45"/>
       <c r="K27" s="45"/>
@@ -13440,12 +13440,12 @@
         <v>349</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G28" s="45"/>
       <c r="H28" s="45"/>
       <c r="I28" s="45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J28" s="45"/>
       <c r="K28" s="45"/>
@@ -13468,12 +13468,12 @@
         <v>349</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
       <c r="I29" s="45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J29" s="45"/>
       <c r="K29" s="45"/>
@@ -13496,12 +13496,12 @@
         <v>349</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G30" s="45"/>
       <c r="H30" s="45"/>
       <c r="I30" s="45" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J30" s="45"/>
       <c r="K30" s="45"/>
@@ -13524,12 +13524,12 @@
         <v>349</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G31" s="45"/>
       <c r="H31" s="45"/>
       <c r="I31" s="45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J31" s="45"/>
       <c r="K31" s="45"/>
@@ -13552,12 +13552,12 @@
         <v>349</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
       <c r="I32" s="45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J32" s="45"/>
       <c r="K32" s="45"/>
@@ -13580,12 +13580,12 @@
         <v>349</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G33" s="45"/>
       <c r="H33" s="45"/>
       <c r="I33" s="45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J33" s="45"/>
       <c r="K33" s="45"/>
@@ -13608,12 +13608,12 @@
         <v>349</v>
       </c>
       <c r="F34" s="45" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G34" s="45"/>
       <c r="H34" s="45"/>
       <c r="I34" s="45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J34" s="45"/>
       <c r="K34" s="45"/>
@@ -13636,12 +13636,12 @@
         <v>349</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G35" s="45"/>
       <c r="H35" s="45"/>
       <c r="I35" s="45" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J35" s="45"/>
       <c r="K35" s="45"/>
@@ -13664,12 +13664,12 @@
         <v>349</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G36" s="45"/>
       <c r="H36" s="45"/>
       <c r="I36" s="45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J36" s="45"/>
       <c r="K36" s="45"/>
@@ -13683,7 +13683,7 @@
         <v>10210</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D37" s="45" t="s">
         <v>350</v>
@@ -13692,16 +13692,16 @@
         <v>349</v>
       </c>
       <c r="F37" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="G37" s="44" t="s">
         <v>415</v>
-      </c>
-      <c r="G37" s="44" t="s">
-        <v>416</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>251</v>
       </c>
       <c r="I37" s="45" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J37" s="45" t="s">
         <v>45</v>
@@ -13721,7 +13721,7 @@
         <v>10210</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D38" s="45" t="s">
         <v>350</v>
@@ -13731,13 +13731,13 @@
       </c>
       <c r="F38" s="43"/>
       <c r="G38" s="44" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H38" s="31" t="s">
         <v>286</v>
       </c>
       <c r="I38" s="45" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J38" s="45" t="s">
         <v>45</v>
@@ -13757,19 +13757,19 @@
         <v>10210</v>
       </c>
       <c r="C39" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D39" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D39" s="45" t="s">
+      <c r="E39" s="45" t="s">
         <v>408</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>409</v>
       </c>
       <c r="F39" s="45"/>
       <c r="G39" s="45"/>
       <c r="H39" s="45"/>
       <c r="I39" s="45" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J39" s="45"/>
       <c r="K39" s="45"/>
@@ -13783,13 +13783,13 @@
         <v>10210</v>
       </c>
       <c r="C40" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D40" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="E40" s="45" t="s">
         <v>408</v>
-      </c>
-      <c r="E40" s="45" t="s">
-        <v>409</v>
       </c>
       <c r="F40" s="45" t="s">
         <v>353</v>
@@ -13797,7 +13797,7 @@
       <c r="G40" s="45"/>
       <c r="H40" s="45"/>
       <c r="I40" s="45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J40" s="45"/>
       <c r="K40" s="45"/>
@@ -13811,21 +13811,21 @@
         <v>10210</v>
       </c>
       <c r="C41" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D41" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D41" s="45" t="s">
+      <c r="E41" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="E41" s="45" t="s">
-        <v>409</v>
-      </c>
       <c r="F41" s="45" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G41" s="45"/>
       <c r="H41" s="45"/>
       <c r="I41" s="45" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J41" s="45"/>
       <c r="K41" s="45"/>
@@ -13839,23 +13839,23 @@
         <v>10210</v>
       </c>
       <c r="C42" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D42" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D42" s="45" t="s">
+      <c r="E42" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="E42" s="45" t="s">
-        <v>409</v>
-      </c>
       <c r="F42" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="G42" s="44" t="s">
         <v>419</v>
-      </c>
-      <c r="G42" s="44" t="s">
-        <v>420</v>
       </c>
       <c r="H42" s="45"/>
       <c r="I42" s="45" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J42" s="45" t="s">
         <v>45</v>
@@ -13875,21 +13875,21 @@
         <v>10210</v>
       </c>
       <c r="C43" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D43" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="E43" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="E43" s="45" t="s">
-        <v>409</v>
-      </c>
       <c r="F43" s="45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G43" s="45"/>
       <c r="H43" s="45"/>
       <c r="I43" s="45" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J43" s="45"/>
       <c r="K43" s="45"/>
@@ -13903,21 +13903,21 @@
         <v>10210</v>
       </c>
       <c r="C44" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D44" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="E44" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="E44" s="45" t="s">
-        <v>409</v>
-      </c>
       <c r="F44" s="45" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G44" s="45"/>
       <c r="H44" s="45"/>
       <c r="I44" s="45" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J44" s="45"/>
       <c r="K44" s="45"/>
@@ -13931,21 +13931,21 @@
         <v>10210</v>
       </c>
       <c r="C45" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D45" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D45" s="45" t="s">
+      <c r="E45" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="E45" s="45" t="s">
-        <v>409</v>
-      </c>
       <c r="F45" s="45" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G45" s="45"/>
       <c r="H45" s="45"/>
       <c r="I45" s="45" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J45" s="45"/>
       <c r="K45" s="45"/>
@@ -13959,21 +13959,21 @@
         <v>10210</v>
       </c>
       <c r="C46" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D46" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="E46" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="E46" s="45" t="s">
-        <v>409</v>
-      </c>
       <c r="F46" s="45" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G46" s="45"/>
       <c r="H46" s="45"/>
       <c r="I46" s="45" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J46" s="45"/>
       <c r="K46" s="45"/>
@@ -13987,21 +13987,21 @@
         <v>10210</v>
       </c>
       <c r="C47" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D47" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D47" s="45" t="s">
+      <c r="E47" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="E47" s="45" t="s">
-        <v>409</v>
-      </c>
       <c r="F47" s="45" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G47" s="45"/>
       <c r="H47" s="45"/>
       <c r="I47" s="45" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J47" s="45"/>
       <c r="K47" s="45"/>
@@ -14015,21 +14015,21 @@
         <v>10210</v>
       </c>
       <c r="C48" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D48" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D48" s="45" t="s">
+      <c r="E48" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="E48" s="45" t="s">
-        <v>409</v>
-      </c>
       <c r="F48" s="45" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G48" s="45"/>
       <c r="H48" s="45"/>
       <c r="I48" s="45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J48" s="45"/>
       <c r="K48" s="45"/>
@@ -14043,21 +14043,21 @@
         <v>10210</v>
       </c>
       <c r="C49" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D49" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D49" s="45" t="s">
+      <c r="E49" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="E49" s="45" t="s">
-        <v>409</v>
-      </c>
       <c r="F49" s="45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G49" s="45"/>
       <c r="H49" s="45"/>
       <c r="I49" s="45" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J49" s="45"/>
       <c r="K49" s="45"/>
@@ -14071,21 +14071,21 @@
         <v>10210</v>
       </c>
       <c r="C50" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D50" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D50" s="45" t="s">
+      <c r="E50" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="E50" s="45" t="s">
-        <v>409</v>
-      </c>
       <c r="F50" s="45" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G50" s="45"/>
       <c r="H50" s="45"/>
       <c r="I50" s="45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J50" s="45"/>
       <c r="K50" s="45"/>
@@ -14099,21 +14099,21 @@
         <v>10210</v>
       </c>
       <c r="C51" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D51" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="E51" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="E51" s="45" t="s">
-        <v>409</v>
-      </c>
       <c r="F51" s="45" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G51" s="45"/>
       <c r="H51" s="45"/>
       <c r="I51" s="45" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J51" s="45"/>
       <c r="K51" s="45"/>
@@ -14127,21 +14127,21 @@
         <v>10210</v>
       </c>
       <c r="C52" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D52" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D52" s="45" t="s">
+      <c r="E52" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="E52" s="45" t="s">
-        <v>409</v>
-      </c>
       <c r="F52" s="45" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G52" s="45"/>
       <c r="H52" s="45"/>
       <c r="I52" s="45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J52" s="45"/>
       <c r="K52" s="45"/>
@@ -14155,21 +14155,21 @@
         <v>10210</v>
       </c>
       <c r="C53" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D53" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D53" s="45" t="s">
+      <c r="E53" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="E53" s="45" t="s">
-        <v>409</v>
-      </c>
       <c r="F53" s="45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G53" s="45"/>
       <c r="H53" s="45"/>
       <c r="I53" s="45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J53" s="45"/>
       <c r="K53" s="45"/>
@@ -14183,21 +14183,21 @@
         <v>10210</v>
       </c>
       <c r="C54" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D54" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D54" s="45" t="s">
+      <c r="E54" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="E54" s="45" t="s">
-        <v>409</v>
-      </c>
       <c r="F54" s="45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G54" s="45"/>
       <c r="H54" s="45"/>
       <c r="I54" s="45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J54" s="45"/>
       <c r="K54" s="45"/>
@@ -14205,27 +14205,27 @@
     </row>
     <row r="55" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="46" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B55" s="45">
         <v>10210</v>
       </c>
       <c r="C55" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D55" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D55" s="45" t="s">
+      <c r="E55" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="E55" s="45" t="s">
-        <v>409</v>
-      </c>
       <c r="F55" s="45" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G55" s="45"/>
       <c r="H55" s="45"/>
       <c r="I55" s="45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J55" s="45"/>
       <c r="K55" s="45"/>
@@ -14233,27 +14233,27 @@
     </row>
     <row r="56" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="46" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B56" s="45">
         <v>10210</v>
       </c>
       <c r="C56" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D56" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D56" s="45" t="s">
+      <c r="E56" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="E56" s="45" t="s">
-        <v>409</v>
-      </c>
       <c r="F56" s="45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G56" s="45"/>
       <c r="H56" s="45"/>
       <c r="I56" s="45" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J56" s="45"/>
       <c r="K56" s="45"/>
@@ -14261,27 +14261,27 @@
     </row>
     <row r="57" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="46" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B57" s="45">
         <v>10210</v>
       </c>
       <c r="C57" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D57" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D57" s="45" t="s">
+      <c r="E57" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="E57" s="45" t="s">
-        <v>409</v>
-      </c>
       <c r="F57" s="45" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G57" s="45"/>
       <c r="H57" s="45"/>
       <c r="I57" s="45" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J57" s="45"/>
       <c r="K57" s="45"/>
@@ -14289,27 +14289,27 @@
     </row>
     <row r="58" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B58" s="45">
         <v>10210</v>
       </c>
       <c r="C58" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D58" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D58" s="45" t="s">
+      <c r="E58" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="E58" s="45" t="s">
-        <v>409</v>
-      </c>
       <c r="F58" s="45" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G58" s="45"/>
       <c r="H58" s="45"/>
       <c r="I58" s="45" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J58" s="45"/>
       <c r="K58" s="45"/>
@@ -14317,31 +14317,31 @@
     </row>
     <row r="59" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="46" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B59" s="45">
         <v>10210</v>
       </c>
       <c r="C59" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D59" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D59" s="45" t="s">
+      <c r="E59" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="E59" s="45" t="s">
-        <v>409</v>
-      </c>
       <c r="F59" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H59" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="I59" s="45" t="s">
         <v>484</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="H59" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="I59" s="45" t="s">
-        <v>485</v>
       </c>
       <c r="J59" s="45" t="s">
         <v>45</v>
@@ -14355,25 +14355,25 @@
     </row>
     <row r="60" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B60" s="45">
         <v>10210</v>
       </c>
       <c r="C60" s="45" t="s">
+        <v>487</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E60" s="45" t="s">
         <v>488</v>
-      </c>
-      <c r="D60" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E60" s="45" t="s">
-        <v>489</v>
       </c>
       <c r="F60" s="45"/>
       <c r="G60" s="45"/>
       <c r="H60" s="45"/>
       <c r="I60" s="45" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J60" s="45"/>
       <c r="K60" s="45"/>
@@ -14381,25 +14381,25 @@
     </row>
     <row r="61" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="46" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B61" s="45">
         <v>10210</v>
       </c>
       <c r="C61" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E61" s="45" t="s">
         <v>491</v>
-      </c>
-      <c r="D61" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E61" s="45" t="s">
-        <v>492</v>
       </c>
       <c r="F61" s="45"/>
       <c r="G61" s="45"/>
       <c r="H61" s="45"/>
       <c r="I61" s="45" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J61" s="45"/>
       <c r="K61" s="45"/>
@@ -14407,19 +14407,19 @@
     </row>
     <row r="62" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="46" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B62" s="45">
         <v>10210</v>
       </c>
       <c r="C62" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E62" s="45" t="s">
         <v>491</v>
-      </c>
-      <c r="D62" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E62" s="45" t="s">
-        <v>492</v>
       </c>
       <c r="F62" s="45" t="s">
         <v>353</v>
@@ -14427,7 +14427,7 @@
       <c r="G62" s="45"/>
       <c r="H62" s="45"/>
       <c r="I62" s="45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J62" s="45"/>
       <c r="K62" s="45"/>
@@ -14435,27 +14435,27 @@
     </row>
     <row r="63" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="46" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B63" s="45">
         <v>10210</v>
       </c>
       <c r="C63" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E63" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="D63" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E63" s="45" t="s">
-        <v>492</v>
-      </c>
       <c r="F63" s="45" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G63" s="45"/>
       <c r="H63" s="45"/>
       <c r="I63" s="45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J63" s="45"/>
       <c r="K63" s="45"/>
@@ -14463,27 +14463,27 @@
     </row>
     <row r="64" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B64" s="45">
         <v>10210</v>
       </c>
       <c r="C64" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E64" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="D64" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E64" s="45" t="s">
-        <v>492</v>
-      </c>
       <c r="F64" s="45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G64" s="45"/>
       <c r="H64" s="45"/>
       <c r="I64" s="45" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J64" s="45"/>
       <c r="K64" s="45"/>
@@ -14491,27 +14491,27 @@
     </row>
     <row r="65" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="46" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B65" s="45">
         <v>10210</v>
       </c>
       <c r="C65" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E65" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="D65" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E65" s="45" t="s">
-        <v>492</v>
-      </c>
       <c r="F65" s="45" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G65" s="45"/>
       <c r="H65" s="45"/>
       <c r="I65" s="45" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J65" s="45"/>
       <c r="K65" s="45"/>
@@ -14519,27 +14519,27 @@
     </row>
     <row r="66" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A66" s="46" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B66" s="45">
         <v>10210</v>
       </c>
       <c r="C66" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E66" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="D66" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E66" s="45" t="s">
-        <v>492</v>
-      </c>
       <c r="F66" s="45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G66" s="45"/>
       <c r="H66" s="45"/>
       <c r="I66" s="45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J66" s="45"/>
       <c r="K66" s="45"/>
@@ -14547,27 +14547,27 @@
     </row>
     <row r="67" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="46" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B67" s="45">
         <v>10210</v>
       </c>
       <c r="C67" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E67" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="D67" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E67" s="45" t="s">
-        <v>492</v>
-      </c>
       <c r="F67" s="45" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G67" s="45"/>
       <c r="H67" s="45"/>
       <c r="I67" s="45" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J67" s="45"/>
       <c r="K67" s="45"/>
@@ -14575,27 +14575,27 @@
     </row>
     <row r="68" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="46" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B68" s="45">
         <v>10210</v>
       </c>
       <c r="C68" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D68" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E68" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="D68" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E68" s="45" t="s">
-        <v>492</v>
-      </c>
       <c r="F68" s="45" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G68" s="45"/>
       <c r="H68" s="45"/>
       <c r="I68" s="45" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J68" s="45"/>
       <c r="K68" s="45"/>
@@ -14603,27 +14603,27 @@
     </row>
     <row r="69" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="46" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B69" s="45">
         <v>10210</v>
       </c>
       <c r="C69" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E69" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="D69" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E69" s="45" t="s">
-        <v>492</v>
-      </c>
       <c r="F69" s="45" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G69" s="45"/>
       <c r="H69" s="45"/>
       <c r="I69" s="45" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J69" s="45"/>
       <c r="K69" s="45"/>
@@ -14631,27 +14631,27 @@
     </row>
     <row r="70" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="46" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B70" s="45">
         <v>10210</v>
       </c>
       <c r="C70" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D70" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E70" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="D70" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E70" s="45" t="s">
-        <v>492</v>
-      </c>
       <c r="F70" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G70" s="45"/>
       <c r="H70" s="45"/>
       <c r="I70" s="45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J70" s="45"/>
       <c r="K70" s="45"/>
@@ -14659,27 +14659,27 @@
     </row>
     <row r="71" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="46" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B71" s="45">
         <v>10210</v>
       </c>
       <c r="C71" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E71" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="D71" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E71" s="45" t="s">
-        <v>492</v>
-      </c>
       <c r="F71" s="45" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G71" s="45"/>
       <c r="H71" s="45"/>
       <c r="I71" s="45" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J71" s="45"/>
       <c r="K71" s="45"/>
@@ -14687,27 +14687,27 @@
     </row>
     <row r="72" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="46" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B72" s="45">
         <v>10210</v>
       </c>
       <c r="C72" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D72" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E72" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="D72" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E72" s="45" t="s">
-        <v>492</v>
-      </c>
       <c r="F72" s="45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G72" s="45"/>
       <c r="H72" s="45"/>
       <c r="I72" s="45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J72" s="45"/>
       <c r="K72" s="45"/>
@@ -14715,27 +14715,27 @@
     </row>
     <row r="73" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="46" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B73" s="45">
         <v>10210</v>
       </c>
       <c r="C73" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D73" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E73" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="D73" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E73" s="45" t="s">
-        <v>492</v>
-      </c>
       <c r="F73" s="45" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G73" s="45"/>
       <c r="H73" s="45"/>
       <c r="I73" s="45" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J73" s="45"/>
       <c r="K73" s="45"/>
@@ -14743,27 +14743,27 @@
     </row>
     <row r="74" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="46" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B74" s="45">
         <v>10210</v>
       </c>
       <c r="C74" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D74" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E74" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="D74" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E74" s="45" t="s">
-        <v>492</v>
-      </c>
       <c r="F74" s="45" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G74" s="45"/>
       <c r="H74" s="45"/>
       <c r="I74" s="45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J74" s="45"/>
       <c r="K74" s="45"/>
@@ -14771,27 +14771,27 @@
     </row>
     <row r="75" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="46" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B75" s="45">
         <v>10210</v>
       </c>
       <c r="C75" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D75" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E75" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="D75" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E75" s="45" t="s">
-        <v>492</v>
-      </c>
       <c r="F75" s="45" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G75" s="45"/>
       <c r="H75" s="45"/>
       <c r="I75" s="45" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J75" s="45"/>
       <c r="K75" s="45"/>
@@ -14799,27 +14799,27 @@
     </row>
     <row r="76" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="46" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B76" s="45">
         <v>10210</v>
       </c>
       <c r="C76" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D76" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E76" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="D76" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E76" s="45" t="s">
-        <v>492</v>
-      </c>
       <c r="F76" s="45" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G76" s="45"/>
       <c r="H76" s="45"/>
       <c r="I76" s="45" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J76" s="45"/>
       <c r="K76" s="45"/>
@@ -14827,27 +14827,27 @@
     </row>
     <row r="77" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B77" s="45">
         <v>10210</v>
       </c>
       <c r="C77" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D77" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E77" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="D77" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E77" s="45" t="s">
-        <v>492</v>
-      </c>
       <c r="F77" s="45" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G77" s="45"/>
       <c r="H77" s="45"/>
       <c r="I77" s="45" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J77" s="45"/>
       <c r="K77" s="45"/>
@@ -14855,31 +14855,31 @@
     </row>
     <row r="78" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A78" s="46" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B78" s="45">
         <v>10210</v>
       </c>
       <c r="C78" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D78" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E78" s="45" t="s">
         <v>491</v>
       </c>
-      <c r="D78" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E78" s="45" t="s">
-        <v>492</v>
-      </c>
       <c r="F78" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H78" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="I78" s="45" t="s">
         <v>484</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="H78" s="31" t="s">
-        <v>515</v>
-      </c>
-      <c r="I78" s="45" t="s">
-        <v>485</v>
       </c>
       <c r="J78" s="45" t="s">
         <v>45</v>
@@ -14893,25 +14893,25 @@
     </row>
     <row r="79" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="46" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B79" s="45">
         <v>10210</v>
       </c>
       <c r="C79" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="D79" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E79" s="45" t="s">
         <v>517</v>
-      </c>
-      <c r="D79" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E79" s="45" t="s">
-        <v>518</v>
       </c>
       <c r="F79" s="45"/>
       <c r="G79" s="45"/>
       <c r="H79" s="45"/>
       <c r="I79" s="45" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J79" s="45"/>
       <c r="K79" s="45"/>
@@ -14919,27 +14919,27 @@
     </row>
     <row r="80" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="46" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B80" s="45">
         <v>10210</v>
       </c>
       <c r="C80" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="D80" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E80" s="45" t="s">
         <v>517</v>
       </c>
-      <c r="D80" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E80" s="45" t="s">
-        <v>518</v>
-      </c>
       <c r="F80" s="45" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G80" s="45"/>
       <c r="H80" s="45"/>
       <c r="I80" s="45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J80" s="45"/>
       <c r="K80" s="45"/>
@@ -14947,27 +14947,27 @@
     </row>
     <row r="81" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="46" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B81" s="45">
         <v>10210</v>
       </c>
       <c r="C81" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="D81" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E81" s="45" t="s">
         <v>517</v>
       </c>
-      <c r="D81" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E81" s="45" t="s">
-        <v>518</v>
-      </c>
       <c r="F81" s="45" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G81" s="45"/>
       <c r="H81" s="45"/>
       <c r="I81" s="45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J81" s="45"/>
       <c r="K81" s="45"/>
@@ -14975,27 +14975,27 @@
     </row>
     <row r="82" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="46" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B82" s="45">
         <v>10210</v>
       </c>
       <c r="C82" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="D82" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E82" s="45" t="s">
         <v>517</v>
       </c>
-      <c r="D82" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E82" s="45" t="s">
-        <v>518</v>
-      </c>
       <c r="F82" s="45" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G82" s="45"/>
       <c r="H82" s="45"/>
       <c r="I82" s="45" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J82" s="45"/>
       <c r="K82" s="45"/>
@@ -15003,27 +15003,27 @@
     </row>
     <row r="83" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="46" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B83" s="45">
         <v>10210</v>
       </c>
       <c r="C83" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="D83" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E83" s="45" t="s">
         <v>517</v>
       </c>
-      <c r="D83" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E83" s="45" t="s">
-        <v>518</v>
-      </c>
       <c r="F83" s="45" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G83" s="45"/>
       <c r="H83" s="45"/>
       <c r="I83" s="45" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J83" s="45"/>
       <c r="K83" s="45"/>
@@ -15031,27 +15031,27 @@
     </row>
     <row r="84" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="46" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B84" s="45">
         <v>10210</v>
       </c>
       <c r="C84" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E84" s="45" t="s">
         <v>517</v>
       </c>
-      <c r="D84" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E84" s="45" t="s">
-        <v>518</v>
-      </c>
       <c r="F84" s="45" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G84" s="45"/>
       <c r="H84" s="45"/>
       <c r="I84" s="45" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J84" s="45"/>
       <c r="K84" s="45"/>
@@ -15059,27 +15059,27 @@
     </row>
     <row r="85" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="46" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B85" s="45">
         <v>10210</v>
       </c>
       <c r="C85" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="D85" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E85" s="45" t="s">
         <v>517</v>
       </c>
-      <c r="D85" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E85" s="45" t="s">
-        <v>518</v>
-      </c>
       <c r="F85" s="45" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G85" s="45"/>
       <c r="H85" s="45"/>
       <c r="I85" s="45" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J85" s="45"/>
       <c r="K85" s="45"/>
@@ -15087,27 +15087,27 @@
     </row>
     <row r="86" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="46" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B86" s="45">
         <v>10210</v>
       </c>
       <c r="C86" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="D86" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E86" s="45" t="s">
         <v>517</v>
       </c>
-      <c r="D86" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E86" s="45" t="s">
-        <v>518</v>
-      </c>
       <c r="F86" s="45" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G86" s="45"/>
       <c r="H86" s="45"/>
       <c r="I86" s="45" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J86" s="45"/>
       <c r="K86" s="45"/>
@@ -15115,27 +15115,27 @@
     </row>
     <row r="87" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="46" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B87" s="45">
         <v>10210</v>
       </c>
       <c r="C87" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="D87" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E87" s="45" t="s">
         <v>517</v>
       </c>
-      <c r="D87" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E87" s="45" t="s">
-        <v>518</v>
-      </c>
       <c r="F87" s="45" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G87" s="45"/>
       <c r="H87" s="45"/>
       <c r="I87" s="45" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J87" s="45"/>
       <c r="K87" s="45"/>
@@ -15143,25 +15143,25 @@
     </row>
     <row r="88" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="46" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B88" s="45">
         <v>10210</v>
       </c>
       <c r="C88" s="45" t="s">
+        <v>558</v>
+      </c>
+      <c r="D88" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E88" s="45" t="s">
         <v>559</v>
-      </c>
-      <c r="D88" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E88" s="45" t="s">
-        <v>560</v>
       </c>
       <c r="F88" s="45"/>
       <c r="G88" s="45"/>
       <c r="H88" s="45"/>
       <c r="I88" s="45" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J88" s="45"/>
       <c r="K88" s="45"/>
@@ -15169,25 +15169,25 @@
     </row>
     <row r="89" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="46" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B89" s="45">
         <v>10210</v>
       </c>
       <c r="C89" s="45" t="s">
+        <v>561</v>
+      </c>
+      <c r="D89" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E89" s="45" t="s">
         <v>562</v>
-      </c>
-      <c r="D89" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E89" s="45" t="s">
-        <v>563</v>
       </c>
       <c r="F89" s="45"/>
       <c r="G89" s="45"/>
       <c r="H89" s="45"/>
       <c r="I89" s="45" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J89" s="45"/>
       <c r="K89" s="45"/>
@@ -15195,27 +15195,27 @@
     </row>
     <row r="90" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="46" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B90" s="45">
         <v>10210</v>
       </c>
       <c r="C90" s="45" t="s">
+        <v>561</v>
+      </c>
+      <c r="D90" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E90" s="45" t="s">
         <v>562</v>
       </c>
-      <c r="D90" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E90" s="45" t="s">
-        <v>563</v>
-      </c>
       <c r="F90" s="45" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G90" s="45"/>
       <c r="H90" s="45"/>
       <c r="I90" s="45" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J90" s="45"/>
       <c r="K90" s="45"/>
@@ -15223,27 +15223,27 @@
     </row>
     <row r="91" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="46" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B91" s="45">
         <v>10210</v>
       </c>
       <c r="C91" s="45" t="s">
+        <v>561</v>
+      </c>
+      <c r="D91" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E91" s="45" t="s">
         <v>562</v>
       </c>
-      <c r="D91" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E91" s="45" t="s">
-        <v>563</v>
-      </c>
       <c r="F91" s="45" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G91" s="45"/>
       <c r="H91" s="45"/>
       <c r="I91" s="45" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J91" s="45"/>
       <c r="K91" s="45"/>
@@ -15251,27 +15251,27 @@
     </row>
     <row r="92" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="46" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B92" s="45">
         <v>10210</v>
       </c>
       <c r="C92" s="45" t="s">
+        <v>561</v>
+      </c>
+      <c r="D92" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E92" s="45" t="s">
         <v>562</v>
       </c>
-      <c r="D92" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E92" s="45" t="s">
-        <v>563</v>
-      </c>
       <c r="F92" s="45" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G92" s="45"/>
       <c r="H92" s="45"/>
       <c r="I92" s="45" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J92" s="45"/>
       <c r="K92" s="45"/>
@@ -15279,27 +15279,27 @@
     </row>
     <row r="93" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="46" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B93" s="45">
         <v>10210</v>
       </c>
       <c r="C93" s="45" t="s">
+        <v>561</v>
+      </c>
+      <c r="D93" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E93" s="45" t="s">
         <v>562</v>
       </c>
-      <c r="D93" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E93" s="45" t="s">
-        <v>563</v>
-      </c>
       <c r="F93" s="45" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G93" s="45"/>
       <c r="H93" s="45"/>
       <c r="I93" s="45" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J93" s="45"/>
       <c r="K93" s="45"/>
@@ -15307,27 +15307,27 @@
     </row>
     <row r="94" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="46" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B94" s="45">
         <v>10210</v>
       </c>
       <c r="C94" s="45" t="s">
+        <v>561</v>
+      </c>
+      <c r="D94" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E94" s="45" t="s">
         <v>562</v>
       </c>
-      <c r="D94" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E94" s="45" t="s">
-        <v>563</v>
-      </c>
       <c r="F94" s="45" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G94" s="45"/>
       <c r="H94" s="45"/>
       <c r="I94" s="45" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J94" s="45"/>
       <c r="K94" s="45"/>
@@ -15335,29 +15335,29 @@
     </row>
     <row r="95" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="46" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B95" s="45">
         <v>10210</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D95" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F95" s="45"/>
       <c r="G95" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H95" s="31" t="s">
         <v>251</v>
       </c>
       <c r="I95" s="45" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J95" s="45" t="s">
         <v>45</v>
@@ -15371,25 +15371,25 @@
     </row>
     <row r="96" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="46" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B96" s="45">
         <v>10210</v>
       </c>
       <c r="C96" s="45" t="s">
+        <v>583</v>
+      </c>
+      <c r="D96" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E96" s="45" t="s">
         <v>584</v>
-      </c>
-      <c r="D96" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E96" s="45" t="s">
-        <v>585</v>
       </c>
       <c r="F96" s="45"/>
       <c r="G96" s="27"/>
       <c r="H96" s="31"/>
       <c r="I96" s="45" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J96" s="45"/>
       <c r="K96" s="45"/>
@@ -15397,25 +15397,25 @@
     </row>
     <row r="97" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="46" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B97" s="45">
         <v>10210</v>
       </c>
       <c r="C97" s="45" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D97" s="45" t="s">
         <v>194</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F97" s="45"/>
       <c r="G97" s="45"/>
       <c r="H97" s="45"/>
       <c r="I97" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J97" s="45"/>
       <c r="K97" s="45"/>
@@ -15423,19 +15423,19 @@
     </row>
     <row r="98" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="46" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B98" s="45">
         <v>10210</v>
       </c>
       <c r="C98" s="45" t="s">
+        <v>586</v>
+      </c>
+      <c r="D98" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E98" s="45" t="s">
         <v>587</v>
-      </c>
-      <c r="D98" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E98" s="45" t="s">
-        <v>588</v>
       </c>
       <c r="F98" s="45"/>
       <c r="G98" s="45"/>
@@ -15449,25 +15449,25 @@
     </row>
     <row r="99" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" s="46" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B99" s="45">
         <v>10210</v>
       </c>
       <c r="C99" s="45" t="s">
+        <v>588</v>
+      </c>
+      <c r="D99" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E99" s="45" t="s">
         <v>589</v>
-      </c>
-      <c r="D99" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E99" s="45" t="s">
-        <v>590</v>
       </c>
       <c r="F99" s="45"/>
       <c r="G99" s="45"/>
       <c r="H99" s="45"/>
       <c r="I99" s="45" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J99" s="45"/>
       <c r="K99" s="45"/>
@@ -15475,25 +15475,25 @@
     </row>
     <row r="100" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="46" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B100" s="45">
         <v>10210</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E100" s="45" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F100" s="45"/>
       <c r="G100" s="45"/>
       <c r="H100" s="45"/>
       <c r="I100" s="45" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J100" s="45"/>
       <c r="K100" s="45"/>
@@ -15501,25 +15501,25 @@
     </row>
     <row r="101" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A101" s="46" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B101" s="45">
         <v>10210</v>
       </c>
       <c r="C101" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="D101" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E101" s="45" t="s">
         <v>626</v>
-      </c>
-      <c r="D101" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E101" s="45" t="s">
-        <v>627</v>
       </c>
       <c r="F101" s="45"/>
       <c r="G101" s="45"/>
       <c r="H101" s="45"/>
       <c r="I101" s="45" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J101" s="45"/>
       <c r="K101" s="45"/>
@@ -15527,25 +15527,25 @@
     </row>
     <row r="102" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B102" s="45">
         <v>10210</v>
       </c>
       <c r="C102" s="45" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D102" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E102" s="45" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F102" s="45"/>
       <c r="G102" s="45"/>
       <c r="H102" s="45"/>
       <c r="I102" s="45" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J102" s="45"/>
       <c r="K102" s="45"/>
@@ -15553,25 +15553,25 @@
     </row>
     <row r="103" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B103" s="45">
         <v>10210</v>
       </c>
       <c r="C103" s="45" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D103" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E103" s="45" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F103" s="45"/>
       <c r="G103" s="45"/>
       <c r="H103" s="45"/>
       <c r="I103" s="45" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J103" s="45"/>
       <c r="K103" s="45"/>
@@ -15579,25 +15579,25 @@
     </row>
     <row r="104" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="46" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B104" s="45">
         <v>10210</v>
       </c>
       <c r="C104" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="D104" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E104" s="45" t="s">
         <v>633</v>
-      </c>
-      <c r="D104" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E104" s="45" t="s">
-        <v>634</v>
       </c>
       <c r="F104" s="45"/>
       <c r="G104" s="45"/>
       <c r="H104" s="45"/>
       <c r="I104" s="45" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J104" s="45"/>
       <c r="K104" s="45"/>
@@ -15605,25 +15605,25 @@
     </row>
     <row r="105" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="46" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B105" s="45">
         <v>10210</v>
       </c>
       <c r="C105" s="45" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D105" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E105" s="45" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F105" s="45"/>
       <c r="G105" s="45"/>
       <c r="H105" s="45"/>
       <c r="I105" s="45" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J105" s="45"/>
       <c r="K105" s="45"/>
@@ -15631,25 +15631,25 @@
     </row>
     <row r="106" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="46" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B106" s="45">
         <v>10210</v>
       </c>
       <c r="C106" s="45" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D106" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E106" s="45" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F106" s="45"/>
       <c r="G106" s="45"/>
       <c r="H106" s="45"/>
       <c r="I106" s="45" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J106" s="45"/>
       <c r="K106" s="45"/>
@@ -15657,25 +15657,25 @@
     </row>
     <row r="107" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="46" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B107" s="45">
         <v>10210</v>
       </c>
       <c r="C107" s="45" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D107" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E107" s="45" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F107" s="45"/>
       <c r="G107" s="45"/>
       <c r="H107" s="45"/>
       <c r="I107" s="45" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J107" s="45"/>
       <c r="K107" s="45"/>
@@ -15683,27 +15683,27 @@
     </row>
     <row r="108" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A108" s="46" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B108" s="45">
         <v>10210</v>
       </c>
       <c r="C108" s="45" t="s">
+        <v>640</v>
+      </c>
+      <c r="D108" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E108" s="45" t="s">
         <v>641</v>
       </c>
-      <c r="D108" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E108" s="45" t="s">
+      <c r="F108" s="45" t="s">
         <v>642</v>
-      </c>
-      <c r="F108" s="45" t="s">
-        <v>643</v>
       </c>
       <c r="G108" s="45"/>
       <c r="H108" s="45"/>
       <c r="I108" s="45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J108" s="45"/>
       <c r="K108" s="45"/>
@@ -15711,27 +15711,27 @@
     </row>
     <row r="109" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A109" s="46" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B109" s="45">
         <v>10210</v>
       </c>
       <c r="C109" s="45" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D109" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E109" s="45" t="s">
+        <v>644</v>
+      </c>
+      <c r="F109" s="45" t="s">
         <v>645</v>
-      </c>
-      <c r="F109" s="45" t="s">
-        <v>646</v>
       </c>
       <c r="G109" s="45"/>
       <c r="H109" s="45"/>
       <c r="I109" s="45" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J109" s="45"/>
       <c r="K109" s="45"/>
@@ -15739,25 +15739,25 @@
     </row>
     <row r="110" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="46" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B110" s="45">
         <v>10210</v>
       </c>
       <c r="C110" s="45" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D110" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E110" s="45" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F110" s="45"/>
       <c r="G110" s="45"/>
       <c r="H110" s="45"/>
       <c r="I110" s="45" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J110" s="45"/>
       <c r="K110" s="45"/>
@@ -15765,27 +15765,27 @@
     </row>
     <row r="111" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A111" s="46" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B111" s="45">
         <v>10210</v>
       </c>
       <c r="C111" s="45" t="s">
+        <v>649</v>
+      </c>
+      <c r="D111" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E111" s="45" t="s">
         <v>650</v>
       </c>
-      <c r="D111" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E111" s="45" t="s">
-        <v>651</v>
-      </c>
       <c r="F111" s="45" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G111" s="45"/>
       <c r="H111" s="45"/>
       <c r="I111" s="45" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J111" s="45"/>
       <c r="K111" s="45"/>
@@ -15793,27 +15793,27 @@
     </row>
     <row r="112" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A112" s="46" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B112" s="45">
         <v>10210</v>
       </c>
       <c r="C112" s="45" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D112" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E112" s="45" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F112" s="45" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G112" s="45"/>
       <c r="H112" s="45"/>
       <c r="I112" s="45" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J112" s="45"/>
       <c r="K112" s="45"/>
@@ -15821,25 +15821,25 @@
     </row>
     <row r="113" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="46" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B113" s="45">
         <v>10210</v>
       </c>
       <c r="C113" s="45" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D113" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E113" s="45" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
       <c r="H113" s="45"/>
       <c r="I113" s="45" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J113" s="45"/>
       <c r="K113" s="45"/>
@@ -15847,25 +15847,25 @@
     </row>
     <row r="114" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="46" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B114" s="45">
         <v>10210</v>
       </c>
       <c r="C114" s="45" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D114" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E114" s="45" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
       <c r="H114" s="45"/>
       <c r="I114" s="45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J114" s="45"/>
       <c r="K114" s="45"/>
@@ -15873,25 +15873,25 @@
     </row>
     <row r="115" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="46" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B115" s="45">
         <v>10210</v>
       </c>
       <c r="C115" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="D115" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E115" s="45" t="s">
         <v>660</v>
-      </c>
-      <c r="D115" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E115" s="45" t="s">
-        <v>661</v>
       </c>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
       <c r="H115" s="45"/>
       <c r="I115" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J115" s="45"/>
       <c r="K115" s="45"/>
@@ -15899,27 +15899,27 @@
     </row>
     <row r="116" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A116" s="46" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B116" s="45">
         <v>10210</v>
       </c>
       <c r="C116" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="D116" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E116" s="45" t="s">
         <v>663</v>
       </c>
-      <c r="D116" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E116" s="45" t="s">
+      <c r="F116" s="31" t="s">
         <v>664</v>
-      </c>
-      <c r="F116" s="31" t="s">
-        <v>665</v>
       </c>
       <c r="G116" s="45"/>
       <c r="H116" s="45"/>
       <c r="I116" s="45" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J116" s="45"/>
       <c r="K116" s="45"/>
@@ -15927,27 +15927,27 @@
     </row>
     <row r="117" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A117" s="46" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B117" s="45">
         <v>10210</v>
       </c>
       <c r="C117" s="45" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D117" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E117" s="45" t="s">
+        <v>666</v>
+      </c>
+      <c r="F117" s="31" t="s">
         <v>667</v>
-      </c>
-      <c r="F117" s="31" t="s">
-        <v>668</v>
       </c>
       <c r="G117" s="45"/>
       <c r="H117" s="45"/>
       <c r="I117" s="45" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J117" s="45"/>
       <c r="K117" s="45"/>
@@ -15955,27 +15955,27 @@
     </row>
     <row r="118" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="46" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B118" s="45">
         <v>10210</v>
       </c>
       <c r="C118" s="45" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D118" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E118" s="45" t="s">
+        <v>668</v>
+      </c>
+      <c r="F118" s="31" t="s">
         <v>669</v>
-      </c>
-      <c r="F118" s="31" t="s">
-        <v>670</v>
       </c>
       <c r="G118" s="45"/>
       <c r="H118" s="45"/>
       <c r="I118" s="45" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J118" s="45"/>
       <c r="K118" s="45"/>
@@ -15983,27 +15983,27 @@
     </row>
     <row r="119" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="46" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B119" s="45">
         <v>10210</v>
       </c>
       <c r="C119" s="45" t="s">
+        <v>671</v>
+      </c>
+      <c r="D119" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E119" s="45" t="s">
         <v>672</v>
       </c>
-      <c r="D119" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E119" s="45" t="s">
+      <c r="F119" s="31" t="s">
         <v>673</v>
-      </c>
-      <c r="F119" s="31" t="s">
-        <v>674</v>
       </c>
       <c r="G119" s="45"/>
       <c r="H119" s="45"/>
       <c r="I119" s="45" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J119" s="45"/>
       <c r="K119" s="45"/>
@@ -16011,19 +16011,19 @@
     </row>
     <row r="120" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" s="46" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B120" s="45">
         <v>10210</v>
       </c>
       <c r="C120" s="45" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D120" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E120" s="45" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F120" s="45">
         <v>23456788</v>
@@ -16031,7 +16031,7 @@
       <c r="G120" s="45"/>
       <c r="H120" s="45"/>
       <c r="I120" s="45" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J120" s="45"/>
       <c r="K120" s="45"/>
@@ -16039,19 +16039,19 @@
     </row>
     <row r="121" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="46" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B121" s="45">
         <v>10210</v>
       </c>
       <c r="C121" s="45" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D121" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E121" s="45" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F121" s="45">
         <v>234567880</v>
@@ -16059,7 +16059,7 @@
       <c r="G121" s="45"/>
       <c r="H121" s="45"/>
       <c r="I121" s="45" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J121" s="45"/>
       <c r="K121" s="45"/>
@@ -16067,27 +16067,27 @@
     </row>
     <row r="122" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="46" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B122" s="45">
         <v>10210</v>
       </c>
       <c r="C122" s="45" t="s">
+        <v>679</v>
+      </c>
+      <c r="D122" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E122" s="45" t="s">
         <v>680</v>
       </c>
-      <c r="D122" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E122" s="45" t="s">
+      <c r="F122" s="31" t="s">
         <v>681</v>
-      </c>
-      <c r="F122" s="31" t="s">
-        <v>682</v>
       </c>
       <c r="G122" s="45"/>
       <c r="H122" s="45"/>
       <c r="I122" s="45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J122" s="45"/>
       <c r="K122" s="45"/>
@@ -16095,25 +16095,25 @@
     </row>
     <row r="123" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="46" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B123" s="45">
         <v>10210</v>
       </c>
       <c r="C123" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="D123" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E123" s="45" t="s">
         <v>684</v>
-      </c>
-      <c r="D123" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E123" s="45" t="s">
-        <v>685</v>
       </c>
       <c r="F123" s="45"/>
       <c r="G123" s="45"/>
       <c r="H123" s="45"/>
       <c r="I123" s="45" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J123" s="45"/>
       <c r="K123" s="45"/>
@@ -16121,25 +16121,25 @@
     </row>
     <row r="124" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="46" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B124" s="45">
         <v>10210</v>
       </c>
       <c r="C124" s="45" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D124" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E124" s="45" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F124" s="45"/>
       <c r="G124" s="45"/>
       <c r="H124" s="45"/>
       <c r="I124" s="45" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J124" s="45"/>
       <c r="K124" s="45"/>
@@ -16147,27 +16147,27 @@
     </row>
     <row r="125" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="46" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B125" s="45">
         <v>10210</v>
       </c>
       <c r="C125" s="45" t="s">
+        <v>688</v>
+      </c>
+      <c r="D125" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E125" s="45" t="s">
         <v>689</v>
       </c>
-      <c r="D125" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E125" s="45" t="s">
+      <c r="F125" s="45" t="s">
         <v>690</v>
-      </c>
-      <c r="F125" s="45" t="s">
-        <v>691</v>
       </c>
       <c r="G125" s="45"/>
       <c r="H125" s="45"/>
       <c r="I125" s="45" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J125" s="45"/>
       <c r="K125" s="45"/>
@@ -16175,27 +16175,27 @@
     </row>
     <row r="126" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="46" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B126" s="45">
         <v>10210</v>
       </c>
       <c r="C126" s="45" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D126" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E126" s="45" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F126" s="45"/>
       <c r="G126" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H126" s="45"/>
       <c r="I126" s="45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J126" s="45" t="s">
         <v>45</v>
@@ -16209,27 +16209,27 @@
     </row>
     <row r="127" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="46" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B127" s="45">
         <v>10210</v>
       </c>
       <c r="C127" s="45" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D127" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E127" s="45" t="s">
+        <v>696</v>
+      </c>
+      <c r="F127" s="45" t="s">
         <v>697</v>
-      </c>
-      <c r="F127" s="45" t="s">
-        <v>698</v>
       </c>
       <c r="G127" s="45"/>
       <c r="H127" s="45"/>
       <c r="I127" s="45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J127" s="45"/>
       <c r="K127" s="45"/>
@@ -16237,27 +16237,27 @@
     </row>
     <row r="128" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A128" s="46" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B128" s="45">
         <v>10210</v>
       </c>
       <c r="C128" s="42" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D128" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E128" s="45" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F128" s="45" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G128" s="45"/>
       <c r="H128" s="45"/>
       <c r="I128" s="42" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J128" s="45"/>
       <c r="K128" s="45"/>
@@ -16265,27 +16265,27 @@
     </row>
     <row r="129" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A129" s="46" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B129" s="45">
         <v>10210</v>
       </c>
       <c r="C129" s="42" t="s">
+        <v>699</v>
+      </c>
+      <c r="D129" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E129" s="45" t="s">
+        <v>684</v>
+      </c>
+      <c r="F129" s="31" t="s">
         <v>700</v>
-      </c>
-      <c r="D129" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E129" s="45" t="s">
-        <v>685</v>
-      </c>
-      <c r="F129" s="31" t="s">
-        <v>701</v>
       </c>
       <c r="G129" s="45"/>
       <c r="H129" s="45"/>
       <c r="I129" s="42" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J129" s="45"/>
       <c r="K129" s="45"/>
@@ -16293,27 +16293,27 @@
     </row>
     <row r="130" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="46" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B130" s="45">
         <v>10210</v>
       </c>
       <c r="C130" s="42" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D130" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E130" s="45" t="s">
+        <v>702</v>
+      </c>
+      <c r="F130" s="31" t="s">
         <v>703</v>
-      </c>
-      <c r="F130" s="31" t="s">
-        <v>704</v>
       </c>
       <c r="G130" s="45"/>
       <c r="H130" s="45"/>
       <c r="I130" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J130" s="45"/>
       <c r="K130" s="45"/>
@@ -16321,19 +16321,19 @@
     </row>
     <row r="131" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="46" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B131" s="45">
         <v>10210</v>
       </c>
       <c r="C131" s="45" t="s">
+        <v>705</v>
+      </c>
+      <c r="D131" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E131" s="45" t="s">
         <v>706</v>
-      </c>
-      <c r="D131" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E131" s="45" t="s">
-        <v>707</v>
       </c>
       <c r="F131" s="45">
         <v>987654321</v>
@@ -16341,7 +16341,7 @@
       <c r="G131" s="45"/>
       <c r="H131" s="45"/>
       <c r="I131" s="42" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J131" s="45"/>
       <c r="K131" s="45"/>
@@ -16349,19 +16349,19 @@
     </row>
     <row r="132" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="46" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B132" s="45">
         <v>10210</v>
       </c>
       <c r="C132" s="45" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D132" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E132" s="45" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F132" s="45">
         <v>98765432123</v>
@@ -16369,7 +16369,7 @@
       <c r="G132" s="45"/>
       <c r="H132" s="45"/>
       <c r="I132" s="45" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J132" s="45"/>
       <c r="K132" s="45"/>
@@ -16377,19 +16377,19 @@
     </row>
     <row r="133" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="46" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B133" s="45">
         <v>10210</v>
       </c>
       <c r="C133" s="45" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D133" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E133" s="45" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F133" s="45">
         <v>9876543212</v>
@@ -16397,7 +16397,7 @@
       <c r="G133" s="45"/>
       <c r="H133" s="45"/>
       <c r="I133" s="45" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J133" s="45"/>
       <c r="K133" s="45"/>
@@ -16405,27 +16405,27 @@
     </row>
     <row r="134" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" s="46" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B134" s="45">
         <v>10210</v>
       </c>
       <c r="C134" s="45" t="s">
+        <v>712</v>
+      </c>
+      <c r="D134" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E134" s="45" t="s">
+        <v>714</v>
+      </c>
+      <c r="F134" s="45" t="s">
         <v>713</v>
-      </c>
-      <c r="D134" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E134" s="45" t="s">
-        <v>715</v>
-      </c>
-      <c r="F134" s="45" t="s">
-        <v>714</v>
       </c>
       <c r="G134" s="45"/>
       <c r="H134" s="45"/>
       <c r="I134" s="45" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J134" s="45"/>
       <c r="K134" s="45"/>
@@ -16433,27 +16433,27 @@
     </row>
     <row r="135" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="46" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B135" s="45">
         <v>10210</v>
       </c>
       <c r="C135" s="45" t="s">
+        <v>730</v>
+      </c>
+      <c r="D135" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E135" s="45" t="s">
+        <v>714</v>
+      </c>
+      <c r="F135" s="45" t="s">
         <v>731</v>
-      </c>
-      <c r="D135" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E135" s="45" t="s">
-        <v>715</v>
-      </c>
-      <c r="F135" s="45" t="s">
-        <v>732</v>
       </c>
       <c r="G135" s="45"/>
       <c r="H135" s="45"/>
       <c r="I135" s="42" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J135" s="45"/>
       <c r="K135" s="45"/>
@@ -16461,27 +16461,27 @@
     </row>
     <row r="136" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A136" s="46" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B136" s="45">
         <v>10210</v>
       </c>
       <c r="C136" s="45" t="s">
+        <v>726</v>
+      </c>
+      <c r="D136" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E136" s="45" t="s">
         <v>727</v>
       </c>
-      <c r="D136" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E136" s="45" t="s">
+      <c r="F136" s="42" t="s">
         <v>728</v>
-      </c>
-      <c r="F136" s="42" t="s">
-        <v>729</v>
       </c>
       <c r="G136" s="45"/>
       <c r="H136" s="45"/>
       <c r="I136" s="45" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J136" s="45"/>
       <c r="K136" s="45"/>
@@ -16489,25 +16489,25 @@
     </row>
     <row r="137" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A137" s="46" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B137" s="45">
         <v>10210</v>
       </c>
       <c r="C137" s="45" t="s">
+        <v>733</v>
+      </c>
+      <c r="D137" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E137" s="45" t="s">
         <v>734</v>
-      </c>
-      <c r="D137" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E137" s="45" t="s">
-        <v>735</v>
       </c>
       <c r="F137" s="45"/>
       <c r="G137" s="45"/>
       <c r="H137" s="45"/>
       <c r="I137" s="45" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J137" s="45"/>
       <c r="K137" s="45"/>
@@ -16515,27 +16515,27 @@
     </row>
     <row r="138" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="46" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B138" s="45">
         <v>10210</v>
       </c>
       <c r="C138" s="45" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D138" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E138" s="45" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F138" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G138" s="45"/>
       <c r="H138" s="45"/>
       <c r="I138" s="45" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J138" s="45"/>
       <c r="K138" s="45"/>
@@ -16543,27 +16543,27 @@
     </row>
     <row r="139" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" s="46" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B139" s="45">
         <v>10210</v>
       </c>
       <c r="C139" s="45" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D139" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E139" s="45" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F139" s="42" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G139" s="45"/>
       <c r="H139" s="45"/>
       <c r="I139" s="45" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J139" s="45"/>
       <c r="K139" s="45"/>
@@ -16571,27 +16571,27 @@
     </row>
     <row r="140" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="46" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B140" s="45">
         <v>10210</v>
       </c>
       <c r="C140" s="45" t="s">
+        <v>740</v>
+      </c>
+      <c r="D140" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E140" s="45" t="s">
         <v>741</v>
       </c>
-      <c r="D140" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E140" s="45" t="s">
+      <c r="F140" s="42" t="s">
         <v>742</v>
-      </c>
-      <c r="F140" s="42" t="s">
-        <v>743</v>
       </c>
       <c r="G140" s="45"/>
       <c r="H140" s="45"/>
       <c r="I140" s="45" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J140" s="45"/>
       <c r="K140" s="45"/>
@@ -16599,25 +16599,25 @@
     </row>
     <row r="141" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="46" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B141" s="45">
         <v>10210</v>
       </c>
       <c r="C141" s="45" t="s">
+        <v>744</v>
+      </c>
+      <c r="D141" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E141" s="45" t="s">
         <v>745</v>
-      </c>
-      <c r="D141" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E141" s="45" t="s">
-        <v>746</v>
       </c>
       <c r="F141" s="45"/>
       <c r="G141" s="45"/>
       <c r="H141" s="45"/>
       <c r="I141" s="45" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J141" s="45"/>
       <c r="K141" s="45"/>
@@ -16625,25 +16625,25 @@
     </row>
     <row r="142" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="46" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B142" s="45">
         <v>10210</v>
       </c>
       <c r="C142" s="45" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D142" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E142" s="45" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F142" s="45"/>
       <c r="G142" s="45"/>
       <c r="H142" s="45"/>
       <c r="I142" s="45" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J142" s="45"/>
       <c r="K142" s="45"/>
@@ -16651,25 +16651,25 @@
     </row>
     <row r="143" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B143" s="45">
         <v>10210</v>
       </c>
       <c r="C143" s="45" t="s">
+        <v>748</v>
+      </c>
+      <c r="D143" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E143" s="42" t="s">
         <v>749</v>
-      </c>
-      <c r="D143" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E143" s="42" t="s">
-        <v>750</v>
       </c>
       <c r="F143" s="45"/>
       <c r="G143" s="45"/>
       <c r="H143" s="45"/>
       <c r="I143" s="45" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J143" s="45"/>
       <c r="K143" s="45"/>
@@ -16677,27 +16677,27 @@
     </row>
     <row r="144" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A144" s="46" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B144" s="45">
         <v>10210</v>
       </c>
       <c r="C144" s="45" t="s">
+        <v>751</v>
+      </c>
+      <c r="D144" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E144" s="45" t="s">
         <v>752</v>
       </c>
-      <c r="D144" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E144" s="45" t="s">
-        <v>753</v>
-      </c>
       <c r="F144" s="42" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G144" s="45"/>
       <c r="H144" s="45"/>
       <c r="I144" s="45" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J144" s="45"/>
       <c r="K144" s="45"/>
@@ -16705,27 +16705,27 @@
     </row>
     <row r="145" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A145" s="46" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B145" s="45">
         <v>10210</v>
       </c>
       <c r="C145" s="45" t="s">
+        <v>753</v>
+      </c>
+      <c r="D145" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E145" s="45" t="s">
         <v>754</v>
       </c>
-      <c r="D145" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E145" s="45" t="s">
+      <c r="F145" s="45" t="s">
         <v>755</v>
-      </c>
-      <c r="F145" s="45" t="s">
-        <v>756</v>
       </c>
       <c r="G145" s="45"/>
       <c r="H145" s="45"/>
       <c r="I145" s="45" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J145" s="45"/>
       <c r="K145" s="45"/>
@@ -16733,27 +16733,27 @@
     </row>
     <row r="146" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A146" s="46" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B146" s="45">
         <v>10210</v>
       </c>
       <c r="C146" s="45" t="s">
+        <v>753</v>
+      </c>
+      <c r="D146" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E146" s="45" t="s">
         <v>754</v>
       </c>
-      <c r="D146" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E146" s="45" t="s">
-        <v>755</v>
-      </c>
       <c r="F146" s="45" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G146" s="45"/>
       <c r="H146" s="45"/>
       <c r="I146" s="45" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J146" s="45"/>
       <c r="K146" s="45"/>
@@ -16761,27 +16761,27 @@
     </row>
     <row r="147" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A147" s="46" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B147" s="45">
         <v>10210</v>
       </c>
       <c r="C147" s="45" t="s">
+        <v>753</v>
+      </c>
+      <c r="D147" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E147" s="45" t="s">
         <v>754</v>
       </c>
-      <c r="D147" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="E147" s="45" t="s">
-        <v>755</v>
-      </c>
       <c r="F147" s="45" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G147" s="45"/>
       <c r="H147" s="45"/>
       <c r="I147" s="45" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J147" s="45"/>
       <c r="K147" s="45"/>
